--- a/Bases_de_Dados_(2022-2023)/Malta Maltese Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Malta Maltese Premier League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="255">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -532,6 +532,21 @@
     <t>['1', '23', '39']</t>
   </si>
   <si>
+    <t>['90+1']</t>
+  </si>
+  <si>
+    <t>['81']</t>
+  </si>
+  <si>
+    <t>['27']</t>
+  </si>
+  <si>
+    <t>['2', '28', '85']</t>
+  </si>
+  <si>
+    <t>['45', '86']</t>
+  </si>
+  <si>
     <t>['35']</t>
   </si>
   <si>
@@ -602,9 +617,6 @@
   </si>
   <si>
     <t>['14', '90']</t>
-  </si>
-  <si>
-    <t>['81']</t>
   </si>
   <si>
     <t>['10', '12', '65']</t>
@@ -758,6 +770,15 @@
   </si>
   <si>
     <t>['6', '28']</t>
+  </si>
+  <si>
+    <t>['18', '36', '84']</t>
+  </si>
+  <si>
+    <t>['45']</t>
+  </si>
+  <si>
+    <t>['11']</t>
   </si>
 </sst>
 </file>
@@ -1119,7 +1140,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK149"/>
+  <dimension ref="A1:BK155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1554,7 +1575,7 @@
         <v>80</v>
       </c>
       <c r="P3" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1644,7 +1665,7 @@
         <v>1.4</v>
       </c>
       <c r="AT3">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1745,7 +1766,7 @@
         <v>81</v>
       </c>
       <c r="P4" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="Q4">
         <v>8</v>
@@ -1835,7 +1856,7 @@
         <v>1.7</v>
       </c>
       <c r="AT4">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1936,7 +1957,7 @@
         <v>82</v>
       </c>
       <c r="P5" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="Q5">
         <v>1</v>
@@ -2023,10 +2044,10 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT5">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2214,7 +2235,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT6">
         <v>0.4</v>
@@ -2318,7 +2339,7 @@
         <v>84</v>
       </c>
       <c r="P7" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2509,7 +2530,7 @@
         <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="Q8">
         <v>2</v>
@@ -2599,7 +2620,7 @@
         <v>1.27</v>
       </c>
       <c r="AT8">
-        <v>2.27</v>
+        <v>2.08</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2700,7 +2721,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="Q9">
         <v>2</v>
@@ -2787,7 +2808,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>0.09</v>
+        <v>0.33</v>
       </c>
       <c r="AT9">
         <v>1.73</v>
@@ -2891,7 +2912,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -2981,7 +3002,7 @@
         <v>0.82</v>
       </c>
       <c r="AT10">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3082,7 +3103,7 @@
         <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="Q11">
         <v>1</v>
@@ -3273,7 +3294,7 @@
         <v>89</v>
       </c>
       <c r="P12" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="Q12">
         <v>2</v>
@@ -3360,7 +3381,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AT12">
         <v>1</v>
@@ -3464,7 +3485,7 @@
         <v>86</v>
       </c>
       <c r="P13" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -3655,7 +3676,7 @@
         <v>90</v>
       </c>
       <c r="P14" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -3742,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT14">
         <v>2.55</v>
@@ -4127,7 +4148,7 @@
         <v>1.4</v>
       </c>
       <c r="AT16">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU16">
         <v>1.7</v>
@@ -4318,7 +4339,7 @@
         <v>0.82</v>
       </c>
       <c r="AT17">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4700,7 +4721,7 @@
         <v>1.7</v>
       </c>
       <c r="AT19">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU19">
         <v>2.38</v>
@@ -4801,7 +4822,7 @@
         <v>86</v>
       </c>
       <c r="P20" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="Q20">
         <v>7</v>
@@ -4888,7 +4909,7 @@
         <v>1</v>
       </c>
       <c r="AS20">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT20">
         <v>2</v>
@@ -5079,7 +5100,7 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AT21">
         <v>0.4</v>
@@ -5270,10 +5291,10 @@
         <v>1</v>
       </c>
       <c r="AS22">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AT22">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU22">
         <v>1.71</v>
@@ -5374,7 +5395,7 @@
         <v>94</v>
       </c>
       <c r="P23" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -5464,7 +5485,7 @@
         <v>1.27</v>
       </c>
       <c r="AT23">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU23">
         <v>1.51</v>
@@ -5652,7 +5673,7 @@
         <v>3</v>
       </c>
       <c r="AS24">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT24">
         <v>1.73</v>
@@ -5756,7 +5777,7 @@
         <v>96</v>
       </c>
       <c r="P25" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="Q25">
         <v>2</v>
@@ -5843,7 +5864,7 @@
         <v>3</v>
       </c>
       <c r="AS25">
-        <v>0.09</v>
+        <v>0.33</v>
       </c>
       <c r="AT25">
         <v>1.82</v>
@@ -5947,7 +5968,7 @@
         <v>86</v>
       </c>
       <c r="P26" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="Q26">
         <v>6</v>
@@ -6034,7 +6055,7 @@
         <v>3</v>
       </c>
       <c r="AS26">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AT26">
         <v>2.55</v>
@@ -6138,7 +6159,7 @@
         <v>97</v>
       </c>
       <c r="P27" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="Q27">
         <v>3</v>
@@ -6329,7 +6350,7 @@
         <v>98</v>
       </c>
       <c r="P28" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="Q28">
         <v>4</v>
@@ -6416,10 +6437,10 @@
         <v>1</v>
       </c>
       <c r="AS28">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT28">
-        <v>2.27</v>
+        <v>2.08</v>
       </c>
       <c r="AU28">
         <v>1.43</v>
@@ -6520,7 +6541,7 @@
         <v>86</v>
       </c>
       <c r="P29" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="Q29">
         <v>3</v>
@@ -6610,7 +6631,7 @@
         <v>0.64</v>
       </c>
       <c r="AT29">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU29">
         <v>0.48</v>
@@ -6798,7 +6819,7 @@
         <v>0.5</v>
       </c>
       <c r="AS30">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AT30">
         <v>1</v>
@@ -6902,7 +6923,7 @@
         <v>100</v>
       </c>
       <c r="P31" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="Q31">
         <v>5</v>
@@ -6989,7 +7010,7 @@
         <v>0.5</v>
       </c>
       <c r="AS31">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT31">
         <v>1.18</v>
@@ -7093,7 +7114,7 @@
         <v>86</v>
       </c>
       <c r="P32" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -7183,7 +7204,7 @@
         <v>0.82</v>
       </c>
       <c r="AT32">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU32">
         <v>1.32</v>
@@ -7284,7 +7305,7 @@
         <v>101</v>
       </c>
       <c r="P33" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="Q33">
         <v>2</v>
@@ -7374,7 +7395,7 @@
         <v>0.64</v>
       </c>
       <c r="AT33">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU33">
         <v>0.5</v>
@@ -7857,7 +7878,7 @@
         <v>86</v>
       </c>
       <c r="P36" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="Q36">
         <v>5</v>
@@ -8135,10 +8156,10 @@
         <v>0</v>
       </c>
       <c r="AS37">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT37">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU37">
         <v>1.54</v>
@@ -8239,7 +8260,7 @@
         <v>86</v>
       </c>
       <c r="P38" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="Q38">
         <v>4</v>
@@ -8430,7 +8451,7 @@
         <v>104</v>
       </c>
       <c r="P39" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="Q39">
         <v>5</v>
@@ -8520,7 +8541,7 @@
         <v>0.64</v>
       </c>
       <c r="AT39">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU39">
         <v>1.31</v>
@@ -8621,7 +8642,7 @@
         <v>105</v>
       </c>
       <c r="P40" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="Q40">
         <v>1</v>
@@ -8711,7 +8732,7 @@
         <v>1.27</v>
       </c>
       <c r="AT40">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU40">
         <v>1.52</v>
@@ -8899,7 +8920,7 @@
         <v>3</v>
       </c>
       <c r="AS41">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT41">
         <v>1.82</v>
@@ -9003,7 +9024,7 @@
         <v>86</v>
       </c>
       <c r="P42" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q42">
         <v>8</v>
@@ -9090,10 +9111,10 @@
         <v>2</v>
       </c>
       <c r="AS42">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AT42">
-        <v>2.27</v>
+        <v>2.08</v>
       </c>
       <c r="AU42">
         <v>1.02</v>
@@ -9194,7 +9215,7 @@
         <v>107</v>
       </c>
       <c r="P43" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9281,7 +9302,7 @@
         <v>3</v>
       </c>
       <c r="AS43">
-        <v>0.09</v>
+        <v>0.33</v>
       </c>
       <c r="AT43">
         <v>2.17</v>
@@ -9576,7 +9597,7 @@
         <v>108</v>
       </c>
       <c r="P45" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q45">
         <v>3</v>
@@ -9663,7 +9684,7 @@
         <v>1</v>
       </c>
       <c r="AS45">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT45">
         <v>1.73</v>
@@ -10149,7 +10170,7 @@
         <v>110</v>
       </c>
       <c r="P48" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q48">
         <v>5</v>
@@ -10531,7 +10552,7 @@
         <v>111</v>
       </c>
       <c r="P50" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q50">
         <v>4</v>
@@ -10621,7 +10642,7 @@
         <v>1.27</v>
       </c>
       <c r="AT50">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU50">
         <v>1.46</v>
@@ -10722,7 +10743,7 @@
         <v>112</v>
       </c>
       <c r="P51" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q51">
         <v>-1</v>
@@ -10809,10 +10830,10 @@
         <v>0</v>
       </c>
       <c r="AS51">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AT51">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU51">
         <v>1.29</v>
@@ -10913,7 +10934,7 @@
         <v>113</v>
       </c>
       <c r="P52" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -11000,7 +11021,7 @@
         <v>2.33</v>
       </c>
       <c r="AS52">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AT52">
         <v>1.82</v>
@@ -11104,7 +11125,7 @@
         <v>114</v>
       </c>
       <c r="P53" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -11191,10 +11212,10 @@
         <v>3</v>
       </c>
       <c r="AS53">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT53">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU53">
         <v>1.54</v>
@@ -11385,7 +11406,7 @@
         <v>1</v>
       </c>
       <c r="AT54">
-        <v>2.27</v>
+        <v>2.08</v>
       </c>
       <c r="AU54">
         <v>1.25</v>
@@ -11486,7 +11507,7 @@
         <v>115</v>
       </c>
       <c r="P55" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q55">
         <v>2</v>
@@ -11573,10 +11594,10 @@
         <v>0.33</v>
       </c>
       <c r="AS55">
-        <v>0.09</v>
+        <v>0.33</v>
       </c>
       <c r="AT55">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU55">
         <v>0.9399999999999999</v>
@@ -11764,7 +11785,7 @@
         <v>3</v>
       </c>
       <c r="AS56">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT56">
         <v>2.17</v>
@@ -11958,7 +11979,7 @@
         <v>0.64</v>
       </c>
       <c r="AT57">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU57">
         <v>1.91</v>
@@ -12059,7 +12080,7 @@
         <v>117</v>
       </c>
       <c r="P58" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q58">
         <v>5</v>
@@ -12250,7 +12271,7 @@
         <v>118</v>
       </c>
       <c r="P59" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q59">
         <v>1</v>
@@ -13014,7 +13035,7 @@
         <v>119</v>
       </c>
       <c r="P63" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q63">
         <v>6</v>
@@ -13396,7 +13417,7 @@
         <v>86</v>
       </c>
       <c r="P65" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q65">
         <v>3</v>
@@ -13483,10 +13504,10 @@
         <v>2</v>
       </c>
       <c r="AS65">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT65">
-        <v>2.27</v>
+        <v>2.08</v>
       </c>
       <c r="AU65">
         <v>1.39</v>
@@ -13674,10 +13695,10 @@
         <v>1.75</v>
       </c>
       <c r="AS66">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT66">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU66">
         <v>1.54</v>
@@ -13865,10 +13886,10 @@
         <v>1.75</v>
       </c>
       <c r="AS67">
-        <v>0.09</v>
+        <v>0.33</v>
       </c>
       <c r="AT67">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU67">
         <v>1.03</v>
@@ -14056,10 +14077,10 @@
         <v>1</v>
       </c>
       <c r="AS68">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT68">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU68">
         <v>1.94</v>
@@ -14247,10 +14268,10 @@
         <v>2.25</v>
       </c>
       <c r="AS69">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AT69">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU69">
         <v>1.29</v>
@@ -14441,7 +14462,7 @@
         <v>1</v>
       </c>
       <c r="AT70">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU70">
         <v>1.22</v>
@@ -14629,7 +14650,7 @@
         <v>2.5</v>
       </c>
       <c r="AS71">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AT71">
         <v>2.17</v>
@@ -14733,7 +14754,7 @@
         <v>115</v>
       </c>
       <c r="P72" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q72">
         <v>8</v>
@@ -14823,7 +14844,7 @@
         <v>2.18</v>
       </c>
       <c r="AT72">
-        <v>2.27</v>
+        <v>2.08</v>
       </c>
       <c r="AU72">
         <v>1.45</v>
@@ -15011,7 +15032,7 @@
         <v>0.6</v>
       </c>
       <c r="AS73">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT73">
         <v>0.4</v>
@@ -15115,7 +15136,7 @@
         <v>86</v>
       </c>
       <c r="P74" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q74">
         <v>6</v>
@@ -15306,7 +15327,7 @@
         <v>86</v>
       </c>
       <c r="P75" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q75">
         <v>6</v>
@@ -15497,7 +15518,7 @@
         <v>127</v>
       </c>
       <c r="P76" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q76">
         <v>7</v>
@@ -15688,7 +15709,7 @@
         <v>128</v>
       </c>
       <c r="P77" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q77">
         <v>5</v>
@@ -15879,7 +15900,7 @@
         <v>129</v>
       </c>
       <c r="P78" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q78">
         <v>4</v>
@@ -16070,7 +16091,7 @@
         <v>86</v>
       </c>
       <c r="P79" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q79">
         <v>5</v>
@@ -16348,7 +16369,7 @@
         <v>2.2</v>
       </c>
       <c r="AS80">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AT80">
         <v>2</v>
@@ -16452,7 +16473,7 @@
         <v>84</v>
       </c>
       <c r="P81" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q81">
         <v>7</v>
@@ -16539,10 +16560,10 @@
         <v>1.6</v>
       </c>
       <c r="AS81">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT81">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU81">
         <v>1.67</v>
@@ -16730,10 +16751,10 @@
         <v>0.8</v>
       </c>
       <c r="AS82">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AT82">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU82">
         <v>1.48</v>
@@ -16834,7 +16855,7 @@
         <v>131</v>
       </c>
       <c r="P83" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q83">
         <v>6</v>
@@ -16921,10 +16942,10 @@
         <v>1.6</v>
       </c>
       <c r="AS83">
-        <v>0.09</v>
+        <v>0.33</v>
       </c>
       <c r="AT83">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU83">
         <v>1.01</v>
@@ -17112,10 +17133,10 @@
         <v>0.2</v>
       </c>
       <c r="AS84">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT84">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU84">
         <v>1.36</v>
@@ -17306,7 +17327,7 @@
         <v>1</v>
       </c>
       <c r="AT85">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU85">
         <v>1.4</v>
@@ -17685,7 +17706,7 @@
         <v>1.17</v>
       </c>
       <c r="AS87">
-        <v>0.09</v>
+        <v>0.33</v>
       </c>
       <c r="AT87">
         <v>1.18</v>
@@ -17789,7 +17810,7 @@
         <v>86</v>
       </c>
       <c r="P88" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q88">
         <v>-1</v>
@@ -17879,7 +17900,7 @@
         <v>0.82</v>
       </c>
       <c r="AT88">
-        <v>2.27</v>
+        <v>2.08</v>
       </c>
       <c r="AU88">
         <v>0.78</v>
@@ -17980,7 +18001,7 @@
         <v>117</v>
       </c>
       <c r="P89" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q89">
         <v>7</v>
@@ -18362,7 +18383,7 @@
         <v>134</v>
       </c>
       <c r="P91" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -18640,7 +18661,7 @@
         <v>1.17</v>
       </c>
       <c r="AS92">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT92">
         <v>1</v>
@@ -18834,7 +18855,7 @@
         <v>0.64</v>
       </c>
       <c r="AT93">
-        <v>2.27</v>
+        <v>2.08</v>
       </c>
       <c r="AU93">
         <v>1.03</v>
@@ -18935,7 +18956,7 @@
         <v>136</v>
       </c>
       <c r="P94" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q94">
         <v>-1</v>
@@ -19213,10 +19234,10 @@
         <v>1.83</v>
       </c>
       <c r="AS95">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AT95">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU95">
         <v>1.05</v>
@@ -19317,7 +19338,7 @@
         <v>86</v>
       </c>
       <c r="P96" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q96">
         <v>4</v>
@@ -19508,7 +19529,7 @@
         <v>137</v>
       </c>
       <c r="P97" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q97">
         <v>9</v>
@@ -19699,7 +19720,7 @@
         <v>86</v>
       </c>
       <c r="P98" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q98">
         <v>6</v>
@@ -19786,7 +19807,7 @@
         <v>1.71</v>
       </c>
       <c r="AS98">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT98">
         <v>1.73</v>
@@ -19890,7 +19911,7 @@
         <v>138</v>
       </c>
       <c r="P99" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q99">
         <v>0</v>
@@ -19977,7 +19998,7 @@
         <v>1</v>
       </c>
       <c r="AS99">
-        <v>0.09</v>
+        <v>0.33</v>
       </c>
       <c r="AT99">
         <v>1</v>
@@ -20081,7 +20102,7 @@
         <v>139</v>
       </c>
       <c r="P100" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q100">
         <v>2</v>
@@ -20171,7 +20192,7 @@
         <v>1.7</v>
       </c>
       <c r="AT100">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU100">
         <v>1.64</v>
@@ -20359,7 +20380,7 @@
         <v>1.43</v>
       </c>
       <c r="AS101">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT101">
         <v>1.18</v>
@@ -20553,7 +20574,7 @@
         <v>2.18</v>
       </c>
       <c r="AT102">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU102">
         <v>1.41</v>
@@ -20654,7 +20675,7 @@
         <v>142</v>
       </c>
       <c r="P103" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q103">
         <v>4</v>
@@ -20744,7 +20765,7 @@
         <v>1.4</v>
       </c>
       <c r="AT103">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU103">
         <v>1.62</v>
@@ -20845,7 +20866,7 @@
         <v>143</v>
       </c>
       <c r="P104" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q104">
         <v>8</v>
@@ -20932,10 +20953,10 @@
         <v>1.5</v>
       </c>
       <c r="AS104">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT104">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU104">
         <v>1.46</v>
@@ -21123,7 +21144,7 @@
         <v>2.33</v>
       </c>
       <c r="AS105">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AT105">
         <v>2</v>
@@ -21227,7 +21248,7 @@
         <v>145</v>
       </c>
       <c r="P106" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q106">
         <v>6</v>
@@ -21418,7 +21439,7 @@
         <v>146</v>
       </c>
       <c r="P107" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="Q107">
         <v>-1</v>
@@ -21508,7 +21529,7 @@
         <v>0.64</v>
       </c>
       <c r="AT107">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU107">
         <v>1.03</v>
@@ -21696,7 +21717,7 @@
         <v>2</v>
       </c>
       <c r="AS108">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT108">
         <v>1.82</v>
@@ -21800,7 +21821,7 @@
         <v>148</v>
       </c>
       <c r="P109" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q109">
         <v>6</v>
@@ -21887,10 +21908,10 @@
         <v>1.57</v>
       </c>
       <c r="AS109">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT109">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU109">
         <v>1.75</v>
@@ -21991,7 +22012,7 @@
         <v>86</v>
       </c>
       <c r="P110" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q110">
         <v>2</v>
@@ -22182,7 +22203,7 @@
         <v>86</v>
       </c>
       <c r="P111" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q111">
         <v>7</v>
@@ -22272,7 +22293,7 @@
         <v>0.64</v>
       </c>
       <c r="AT111">
-        <v>2.27</v>
+        <v>2.08</v>
       </c>
       <c r="AU111">
         <v>1.45</v>
@@ -22373,7 +22394,7 @@
         <v>149</v>
       </c>
       <c r="P112" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q112">
         <v>4</v>
@@ -22460,7 +22481,7 @@
         <v>2.38</v>
       </c>
       <c r="AS112">
-        <v>0.09</v>
+        <v>0.33</v>
       </c>
       <c r="AT112">
         <v>2.55</v>
@@ -22845,7 +22866,7 @@
         <v>2.18</v>
       </c>
       <c r="AT114">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU114">
         <v>1.47</v>
@@ -23036,7 +23057,7 @@
         <v>0.82</v>
       </c>
       <c r="AT115">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU115">
         <v>0.78</v>
@@ -23224,7 +23245,7 @@
         <v>0.57</v>
       </c>
       <c r="AS116">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT116">
         <v>0.4</v>
@@ -23418,7 +23439,7 @@
         <v>1.4</v>
       </c>
       <c r="AT117">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU117">
         <v>1.74</v>
@@ -23797,7 +23818,7 @@
         <v>1.25</v>
       </c>
       <c r="AS119">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AT119">
         <v>1.18</v>
@@ -23901,7 +23922,7 @@
         <v>155</v>
       </c>
       <c r="P120" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q120">
         <v>4</v>
@@ -23988,7 +24009,7 @@
         <v>1.88</v>
       </c>
       <c r="AS120">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AT120">
         <v>1.73</v>
@@ -24092,7 +24113,7 @@
         <v>86</v>
       </c>
       <c r="P121" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q121">
         <v>4</v>
@@ -24179,7 +24200,7 @@
         <v>2.44</v>
       </c>
       <c r="AS121">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT121">
         <v>2.55</v>
@@ -24373,7 +24394,7 @@
         <v>1.27</v>
       </c>
       <c r="AT122">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU122">
         <v>1.4</v>
@@ -24474,7 +24495,7 @@
         <v>86</v>
       </c>
       <c r="P123" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q123">
         <v>5</v>
@@ -24561,10 +24582,10 @@
         <v>2.33</v>
       </c>
       <c r="AS123">
-        <v>0.09</v>
+        <v>0.33</v>
       </c>
       <c r="AT123">
-        <v>2.27</v>
+        <v>2.08</v>
       </c>
       <c r="AU123">
         <v>0.92</v>
@@ -24665,7 +24686,7 @@
         <v>157</v>
       </c>
       <c r="P124" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q124">
         <v>3</v>
@@ -24752,7 +24773,7 @@
         <v>1.78</v>
       </c>
       <c r="AS124">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AT124">
         <v>1.82</v>
@@ -24856,7 +24877,7 @@
         <v>158</v>
       </c>
       <c r="P125" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q125">
         <v>8</v>
@@ -24943,7 +24964,7 @@
         <v>2.11</v>
       </c>
       <c r="AS125">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT125">
         <v>2.17</v>
@@ -25137,7 +25158,7 @@
         <v>1</v>
       </c>
       <c r="AT126">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU126">
         <v>1.4</v>
@@ -25238,7 +25259,7 @@
         <v>159</v>
       </c>
       <c r="P127" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q127">
         <v>5</v>
@@ -25328,7 +25349,7 @@
         <v>0.64</v>
       </c>
       <c r="AT127">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU127">
         <v>1.43</v>
@@ -25429,7 +25450,7 @@
         <v>160</v>
       </c>
       <c r="P128" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="Q128">
         <v>7</v>
@@ -25519,7 +25540,7 @@
         <v>2.18</v>
       </c>
       <c r="AT128">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU128">
         <v>1.43</v>
@@ -25707,7 +25728,7 @@
         <v>1.78</v>
       </c>
       <c r="AS129">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AT129">
         <v>1.73</v>
@@ -25811,7 +25832,7 @@
         <v>86</v>
       </c>
       <c r="P130" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q130">
         <v>-1</v>
@@ -26002,7 +26023,7 @@
         <v>162</v>
       </c>
       <c r="P131" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q131">
         <v>5</v>
@@ -26474,7 +26495,7 @@
         <v>0.64</v>
       </c>
       <c r="AT133">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU133">
         <v>1.03</v>
@@ -26662,7 +26683,7 @@
         <v>1.22</v>
       </c>
       <c r="AS134">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT134">
         <v>1</v>
@@ -26766,7 +26787,7 @@
         <v>165</v>
       </c>
       <c r="P135" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q135">
         <v>2</v>
@@ -26853,10 +26874,10 @@
         <v>2.4</v>
       </c>
       <c r="AS135">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT135">
-        <v>2.27</v>
+        <v>2.08</v>
       </c>
       <c r="AU135">
         <v>1.7</v>
@@ -26957,7 +26978,7 @@
         <v>166</v>
       </c>
       <c r="P136" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q136">
         <v>5</v>
@@ -27047,7 +27068,7 @@
         <v>0.64</v>
       </c>
       <c r="AT136">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU136">
         <v>1.43</v>
@@ -27148,7 +27169,7 @@
         <v>86</v>
       </c>
       <c r="P137" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q137">
         <v>3</v>
@@ -27235,10 +27256,10 @@
         <v>0.22</v>
       </c>
       <c r="AS137">
-        <v>0.09</v>
+        <v>0.33</v>
       </c>
       <c r="AT137">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU137">
         <v>0.92</v>
@@ -27339,7 +27360,7 @@
         <v>167</v>
       </c>
       <c r="P138" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q138">
         <v>6</v>
@@ -27426,10 +27447,10 @@
         <v>0.44</v>
       </c>
       <c r="AS138">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT138">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU138">
         <v>1.34</v>
@@ -27808,10 +27829,10 @@
         <v>1.67</v>
       </c>
       <c r="AS140">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AT140">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU140">
         <v>1.74</v>
@@ -27912,7 +27933,7 @@
         <v>121</v>
       </c>
       <c r="P141" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q141">
         <v>6</v>
@@ -27999,7 +28020,7 @@
         <v>2.2</v>
       </c>
       <c r="AS141">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AT141">
         <v>2.17</v>
@@ -28485,7 +28506,7 @@
         <v>169</v>
       </c>
       <c r="P144" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q144">
         <v>0</v>
@@ -28676,7 +28697,7 @@
         <v>134</v>
       </c>
       <c r="P145" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="Q145">
         <v>10</v>
@@ -28867,7 +28888,7 @@
         <v>170</v>
       </c>
       <c r="P146" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q146">
         <v>9</v>
@@ -28957,7 +28978,7 @@
         <v>2.18</v>
       </c>
       <c r="AT146">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU146">
         <v>1.48</v>
@@ -29249,7 +29270,7 @@
         <v>96</v>
       </c>
       <c r="P148" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q148">
         <v>3</v>
@@ -29336,7 +29357,7 @@
         <v>2.5</v>
       </c>
       <c r="AS148">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT148">
         <v>2.55</v>
@@ -29581,6 +29602,1152 @@
         <v>6</v>
       </c>
       <c r="BK149">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="150" spans="1:63">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>4497323</v>
+      </c>
+      <c r="C150" t="s">
+        <v>63</v>
+      </c>
+      <c r="D150" t="s">
+        <v>64</v>
+      </c>
+      <c r="E150" s="2">
+        <v>44996.41666666666</v>
+      </c>
+      <c r="F150">
+        <v>22</v>
+      </c>
+      <c r="G150" t="s">
+        <v>77</v>
+      </c>
+      <c r="H150" t="s">
+        <v>74</v>
+      </c>
+      <c r="I150">
+        <v>0</v>
+      </c>
+      <c r="J150">
+        <v>2</v>
+      </c>
+      <c r="K150">
+        <v>2</v>
+      </c>
+      <c r="L150">
+        <v>1</v>
+      </c>
+      <c r="M150">
+        <v>3</v>
+      </c>
+      <c r="N150">
+        <v>4</v>
+      </c>
+      <c r="O150" t="s">
+        <v>172</v>
+      </c>
+      <c r="P150" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q150">
+        <v>5</v>
+      </c>
+      <c r="R150">
+        <v>4</v>
+      </c>
+      <c r="S150">
+        <v>9</v>
+      </c>
+      <c r="T150">
+        <v>2.2</v>
+      </c>
+      <c r="U150">
+        <v>2.25</v>
+      </c>
+      <c r="V150">
+        <v>5</v>
+      </c>
+      <c r="W150">
+        <v>1.36</v>
+      </c>
+      <c r="X150">
+        <v>2.88</v>
+      </c>
+      <c r="Y150">
+        <v>2.73</v>
+      </c>
+      <c r="Z150">
+        <v>1.4</v>
+      </c>
+      <c r="AA150">
+        <v>6</v>
+      </c>
+      <c r="AB150">
+        <v>1.11</v>
+      </c>
+      <c r="AC150">
+        <v>1.62</v>
+      </c>
+      <c r="AD150">
+        <v>3.8</v>
+      </c>
+      <c r="AE150">
+        <v>4.33</v>
+      </c>
+      <c r="AF150">
+        <v>1.06</v>
+      </c>
+      <c r="AG150">
+        <v>8</v>
+      </c>
+      <c r="AH150">
+        <v>1.26</v>
+      </c>
+      <c r="AI150">
+        <v>3.34</v>
+      </c>
+      <c r="AJ150">
+        <v>1.85</v>
+      </c>
+      <c r="AK150">
+        <v>1.95</v>
+      </c>
+      <c r="AL150">
+        <v>1.8</v>
+      </c>
+      <c r="AM150">
+        <v>1.86</v>
+      </c>
+      <c r="AN150">
+        <v>1.15</v>
+      </c>
+      <c r="AO150">
+        <v>1.23</v>
+      </c>
+      <c r="AP150">
+        <v>2.06</v>
+      </c>
+      <c r="AQ150">
+        <v>1.73</v>
+      </c>
+      <c r="AR150">
+        <v>1.4</v>
+      </c>
+      <c r="AS150">
+        <v>1.58</v>
+      </c>
+      <c r="AT150">
+        <v>1.55</v>
+      </c>
+      <c r="AU150">
+        <v>1.39</v>
+      </c>
+      <c r="AV150">
+        <v>1.11</v>
+      </c>
+      <c r="AW150">
+        <v>2.5</v>
+      </c>
+      <c r="AX150">
+        <v>0</v>
+      </c>
+      <c r="AY150">
+        <v>0</v>
+      </c>
+      <c r="AZ150">
+        <v>0</v>
+      </c>
+      <c r="BA150">
+        <v>0</v>
+      </c>
+      <c r="BB150">
+        <v>0</v>
+      </c>
+      <c r="BC150">
+        <v>0</v>
+      </c>
+      <c r="BD150">
+        <v>0</v>
+      </c>
+      <c r="BE150">
+        <v>0</v>
+      </c>
+      <c r="BF150">
+        <v>4</v>
+      </c>
+      <c r="BG150">
+        <v>6</v>
+      </c>
+      <c r="BH150">
+        <v>5</v>
+      </c>
+      <c r="BI150">
+        <v>4</v>
+      </c>
+      <c r="BJ150">
+        <v>9</v>
+      </c>
+      <c r="BK150">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151" spans="1:63">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>4497324</v>
+      </c>
+      <c r="C151" t="s">
+        <v>63</v>
+      </c>
+      <c r="D151" t="s">
+        <v>64</v>
+      </c>
+      <c r="E151" s="2">
+        <v>44996.41666666666</v>
+      </c>
+      <c r="F151">
+        <v>22</v>
+      </c>
+      <c r="G151" t="s">
+        <v>78</v>
+      </c>
+      <c r="H151" t="s">
+        <v>67</v>
+      </c>
+      <c r="I151">
+        <v>0</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+      <c r="K151">
+        <v>0</v>
+      </c>
+      <c r="L151">
+        <v>1</v>
+      </c>
+      <c r="M151">
+        <v>0</v>
+      </c>
+      <c r="N151">
+        <v>1</v>
+      </c>
+      <c r="O151" t="s">
+        <v>173</v>
+      </c>
+      <c r="P151" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q151">
+        <v>4</v>
+      </c>
+      <c r="R151">
+        <v>3</v>
+      </c>
+      <c r="S151">
+        <v>7</v>
+      </c>
+      <c r="T151">
+        <v>2.63</v>
+      </c>
+      <c r="U151">
+        <v>2</v>
+      </c>
+      <c r="V151">
+        <v>4.33</v>
+      </c>
+      <c r="W151">
+        <v>1.48</v>
+      </c>
+      <c r="X151">
+        <v>2.47</v>
+      </c>
+      <c r="Y151">
+        <v>3.22</v>
+      </c>
+      <c r="Z151">
+        <v>1.3</v>
+      </c>
+      <c r="AA151">
+        <v>7.5</v>
+      </c>
+      <c r="AB151">
+        <v>1.07</v>
+      </c>
+      <c r="AC151">
+        <v>1.91</v>
+      </c>
+      <c r="AD151">
+        <v>3.3</v>
+      </c>
+      <c r="AE151">
+        <v>3.6</v>
+      </c>
+      <c r="AF151">
+        <v>1.08</v>
+      </c>
+      <c r="AG151">
+        <v>7</v>
+      </c>
+      <c r="AH151">
+        <v>1.39</v>
+      </c>
+      <c r="AI151">
+        <v>2.67</v>
+      </c>
+      <c r="AJ151">
+        <v>2.35</v>
+      </c>
+      <c r="AK151">
+        <v>1.57</v>
+      </c>
+      <c r="AL151">
+        <v>2</v>
+      </c>
+      <c r="AM151">
+        <v>1.69</v>
+      </c>
+      <c r="AN151">
+        <v>1.24</v>
+      </c>
+      <c r="AO151">
+        <v>1.3</v>
+      </c>
+      <c r="AP151">
+        <v>1.71</v>
+      </c>
+      <c r="AQ151">
+        <v>2.8</v>
+      </c>
+      <c r="AR151">
+        <v>2.27</v>
+      </c>
+      <c r="AS151">
+        <v>2.82</v>
+      </c>
+      <c r="AT151">
+        <v>2.08</v>
+      </c>
+      <c r="AU151">
+        <v>1.66</v>
+      </c>
+      <c r="AV151">
+        <v>1.57</v>
+      </c>
+      <c r="AW151">
+        <v>3.23</v>
+      </c>
+      <c r="AX151">
+        <v>0</v>
+      </c>
+      <c r="AY151">
+        <v>0</v>
+      </c>
+      <c r="AZ151">
+        <v>0</v>
+      </c>
+      <c r="BA151">
+        <v>0</v>
+      </c>
+      <c r="BB151">
+        <v>0</v>
+      </c>
+      <c r="BC151">
+        <v>0</v>
+      </c>
+      <c r="BD151">
+        <v>0</v>
+      </c>
+      <c r="BE151">
+        <v>0</v>
+      </c>
+      <c r="BF151">
+        <v>2</v>
+      </c>
+      <c r="BG151">
+        <v>0</v>
+      </c>
+      <c r="BH151">
+        <v>4</v>
+      </c>
+      <c r="BI151">
+        <v>4</v>
+      </c>
+      <c r="BJ151">
+        <v>6</v>
+      </c>
+      <c r="BK151">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152" spans="1:63">
+      <c r="A152" s="1">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>4497328</v>
+      </c>
+      <c r="C152" t="s">
+        <v>63</v>
+      </c>
+      <c r="D152" t="s">
+        <v>64</v>
+      </c>
+      <c r="E152" s="2">
+        <v>44996.51041666666</v>
+      </c>
+      <c r="F152">
+        <v>22</v>
+      </c>
+      <c r="G152" t="s">
+        <v>69</v>
+      </c>
+      <c r="H152" t="s">
+        <v>73</v>
+      </c>
+      <c r="I152">
+        <v>0</v>
+      </c>
+      <c r="J152">
+        <v>0</v>
+      </c>
+      <c r="K152">
+        <v>0</v>
+      </c>
+      <c r="L152">
+        <v>1</v>
+      </c>
+      <c r="M152">
+        <v>0</v>
+      </c>
+      <c r="N152">
+        <v>1</v>
+      </c>
+      <c r="O152" t="s">
+        <v>95</v>
+      </c>
+      <c r="P152" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q152">
+        <v>9</v>
+      </c>
+      <c r="R152">
+        <v>4</v>
+      </c>
+      <c r="S152">
+        <v>13</v>
+      </c>
+      <c r="T152">
+        <v>1.95</v>
+      </c>
+      <c r="U152">
+        <v>2.3</v>
+      </c>
+      <c r="V152">
+        <v>6</v>
+      </c>
+      <c r="W152">
+        <v>1.32</v>
+      </c>
+      <c r="X152">
+        <v>3.1</v>
+      </c>
+      <c r="Y152">
+        <v>2.5</v>
+      </c>
+      <c r="Z152">
+        <v>1.47</v>
+      </c>
+      <c r="AA152">
+        <v>5</v>
+      </c>
+      <c r="AB152">
+        <v>1.14</v>
+      </c>
+      <c r="AC152">
+        <v>1.44</v>
+      </c>
+      <c r="AD152">
+        <v>4</v>
+      </c>
+      <c r="AE152">
+        <v>6</v>
+      </c>
+      <c r="AF152">
+        <v>1.04</v>
+      </c>
+      <c r="AG152">
+        <v>10</v>
+      </c>
+      <c r="AH152">
+        <v>1.25</v>
+      </c>
+      <c r="AI152">
+        <v>3.75</v>
+      </c>
+      <c r="AJ152">
+        <v>1.8</v>
+      </c>
+      <c r="AK152">
+        <v>2</v>
+      </c>
+      <c r="AL152">
+        <v>1.91</v>
+      </c>
+      <c r="AM152">
+        <v>1.8</v>
+      </c>
+      <c r="AN152">
+        <v>1.05</v>
+      </c>
+      <c r="AO152">
+        <v>1.15</v>
+      </c>
+      <c r="AP152">
+        <v>2.86</v>
+      </c>
+      <c r="AQ152">
+        <v>1.6</v>
+      </c>
+      <c r="AR152">
+        <v>0.5</v>
+      </c>
+      <c r="AS152">
+        <v>1.73</v>
+      </c>
+      <c r="AT152">
+        <v>0.45</v>
+      </c>
+      <c r="AU152">
+        <v>1.63</v>
+      </c>
+      <c r="AV152">
+        <v>1.2</v>
+      </c>
+      <c r="AW152">
+        <v>2.83</v>
+      </c>
+      <c r="AX152">
+        <v>0</v>
+      </c>
+      <c r="AY152">
+        <v>0</v>
+      </c>
+      <c r="AZ152">
+        <v>0</v>
+      </c>
+      <c r="BA152">
+        <v>0</v>
+      </c>
+      <c r="BB152">
+        <v>0</v>
+      </c>
+      <c r="BC152">
+        <v>0</v>
+      </c>
+      <c r="BD152">
+        <v>0</v>
+      </c>
+      <c r="BE152">
+        <v>0</v>
+      </c>
+      <c r="BF152">
+        <v>2</v>
+      </c>
+      <c r="BG152">
+        <v>4</v>
+      </c>
+      <c r="BH152">
+        <v>5</v>
+      </c>
+      <c r="BI152">
+        <v>2</v>
+      </c>
+      <c r="BJ152">
+        <v>7</v>
+      </c>
+      <c r="BK152">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="153" spans="1:63">
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>4497322</v>
+      </c>
+      <c r="C153" t="s">
+        <v>63</v>
+      </c>
+      <c r="D153" t="s">
+        <v>64</v>
+      </c>
+      <c r="E153" s="2">
+        <v>44996.58333333334</v>
+      </c>
+      <c r="F153">
+        <v>22</v>
+      </c>
+      <c r="G153" t="s">
+        <v>68</v>
+      </c>
+      <c r="H153" t="s">
+        <v>65</v>
+      </c>
+      <c r="I153">
+        <v>1</v>
+      </c>
+      <c r="J153">
+        <v>1</v>
+      </c>
+      <c r="K153">
+        <v>2</v>
+      </c>
+      <c r="L153">
+        <v>1</v>
+      </c>
+      <c r="M153">
+        <v>1</v>
+      </c>
+      <c r="N153">
+        <v>2</v>
+      </c>
+      <c r="O153" t="s">
+        <v>174</v>
+      </c>
+      <c r="P153" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q153">
+        <v>6</v>
+      </c>
+      <c r="R153">
+        <v>13</v>
+      </c>
+      <c r="S153">
+        <v>19</v>
+      </c>
+      <c r="T153">
+        <v>4.5</v>
+      </c>
+      <c r="U153">
+        <v>2.2</v>
+      </c>
+      <c r="V153">
+        <v>2.3</v>
+      </c>
+      <c r="W153">
+        <v>1.39</v>
+      </c>
+      <c r="X153">
+        <v>2.77</v>
+      </c>
+      <c r="Y153">
+        <v>2.81</v>
+      </c>
+      <c r="Z153">
+        <v>1.38</v>
+      </c>
+      <c r="AA153">
+        <v>6.5</v>
+      </c>
+      <c r="AB153">
+        <v>1.1</v>
+      </c>
+      <c r="AC153">
+        <v>4.25</v>
+      </c>
+      <c r="AD153">
+        <v>3.45</v>
+      </c>
+      <c r="AE153">
+        <v>1.71</v>
+      </c>
+      <c r="AF153">
+        <v>1.06</v>
+      </c>
+      <c r="AG153">
+        <v>8</v>
+      </c>
+      <c r="AH153">
+        <v>1.28</v>
+      </c>
+      <c r="AI153">
+        <v>3.2</v>
+      </c>
+      <c r="AJ153">
+        <v>1.84</v>
+      </c>
+      <c r="AK153">
+        <v>1.77</v>
+      </c>
+      <c r="AL153">
+        <v>1.81</v>
+      </c>
+      <c r="AM153">
+        <v>1.85</v>
+      </c>
+      <c r="AN153">
+        <v>1.98</v>
+      </c>
+      <c r="AO153">
+        <v>1.24</v>
+      </c>
+      <c r="AP153">
+        <v>1.17</v>
+      </c>
+      <c r="AQ153">
+        <v>1.6</v>
+      </c>
+      <c r="AR153">
+        <v>1.6</v>
+      </c>
+      <c r="AS153">
+        <v>1.55</v>
+      </c>
+      <c r="AT153">
+        <v>1.55</v>
+      </c>
+      <c r="AU153">
+        <v>1.27</v>
+      </c>
+      <c r="AV153">
+        <v>1.64</v>
+      </c>
+      <c r="AW153">
+        <v>2.91</v>
+      </c>
+      <c r="AX153">
+        <v>0</v>
+      </c>
+      <c r="AY153">
+        <v>0</v>
+      </c>
+      <c r="AZ153">
+        <v>0</v>
+      </c>
+      <c r="BA153">
+        <v>0</v>
+      </c>
+      <c r="BB153">
+        <v>0</v>
+      </c>
+      <c r="BC153">
+        <v>0</v>
+      </c>
+      <c r="BD153">
+        <v>0</v>
+      </c>
+      <c r="BE153">
+        <v>0</v>
+      </c>
+      <c r="BF153">
+        <v>4</v>
+      </c>
+      <c r="BG153">
+        <v>6</v>
+      </c>
+      <c r="BH153">
+        <v>7</v>
+      </c>
+      <c r="BI153">
+        <v>10</v>
+      </c>
+      <c r="BJ153">
+        <v>11</v>
+      </c>
+      <c r="BK153">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="154" spans="1:63">
+      <c r="A154" s="1">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>4497325</v>
+      </c>
+      <c r="C154" t="s">
+        <v>63</v>
+      </c>
+      <c r="D154" t="s">
+        <v>64</v>
+      </c>
+      <c r="E154" s="2">
+        <v>44997.45833333334</v>
+      </c>
+      <c r="F154">
+        <v>22</v>
+      </c>
+      <c r="G154" t="s">
+        <v>72</v>
+      </c>
+      <c r="H154" t="s">
+        <v>71</v>
+      </c>
+      <c r="I154">
+        <v>2</v>
+      </c>
+      <c r="J154">
+        <v>1</v>
+      </c>
+      <c r="K154">
+        <v>3</v>
+      </c>
+      <c r="L154">
+        <v>3</v>
+      </c>
+      <c r="M154">
+        <v>1</v>
+      </c>
+      <c r="N154">
+        <v>4</v>
+      </c>
+      <c r="O154" t="s">
+        <v>175</v>
+      </c>
+      <c r="P154" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q154">
+        <v>0</v>
+      </c>
+      <c r="R154">
+        <v>5</v>
+      </c>
+      <c r="S154">
+        <v>5</v>
+      </c>
+      <c r="T154">
+        <v>6.5</v>
+      </c>
+      <c r="U154">
+        <v>2.38</v>
+      </c>
+      <c r="V154">
+        <v>1.91</v>
+      </c>
+      <c r="W154">
+        <v>1.3</v>
+      </c>
+      <c r="X154">
+        <v>3.4</v>
+      </c>
+      <c r="Y154">
+        <v>2.3</v>
+      </c>
+      <c r="Z154">
+        <v>1.57</v>
+      </c>
+      <c r="AA154">
+        <v>5</v>
+      </c>
+      <c r="AB154">
+        <v>1.14</v>
+      </c>
+      <c r="AC154">
+        <v>6</v>
+      </c>
+      <c r="AD154">
+        <v>4.5</v>
+      </c>
+      <c r="AE154">
+        <v>1.36</v>
+      </c>
+      <c r="AF154">
+        <v>1.04</v>
+      </c>
+      <c r="AG154">
+        <v>10</v>
+      </c>
+      <c r="AH154">
+        <v>1.22</v>
+      </c>
+      <c r="AI154">
+        <v>4</v>
+      </c>
+      <c r="AJ154">
+        <v>1.73</v>
+      </c>
+      <c r="AK154">
+        <v>2.08</v>
+      </c>
+      <c r="AL154">
+        <v>1.93</v>
+      </c>
+      <c r="AM154">
+        <v>1.83</v>
+      </c>
+      <c r="AN154">
+        <v>3</v>
+      </c>
+      <c r="AO154">
+        <v>1.14</v>
+      </c>
+      <c r="AP154">
+        <v>1.04</v>
+      </c>
+      <c r="AQ154">
+        <v>0.09</v>
+      </c>
+      <c r="AR154">
+        <v>1.4</v>
+      </c>
+      <c r="AS154">
+        <v>0.33</v>
+      </c>
+      <c r="AT154">
+        <v>1.27</v>
+      </c>
+      <c r="AU154">
+        <v>0.96</v>
+      </c>
+      <c r="AV154">
+        <v>1.23</v>
+      </c>
+      <c r="AW154">
+        <v>2.19</v>
+      </c>
+      <c r="AX154">
+        <v>0</v>
+      </c>
+      <c r="AY154">
+        <v>0</v>
+      </c>
+      <c r="AZ154">
+        <v>0</v>
+      </c>
+      <c r="BA154">
+        <v>0</v>
+      </c>
+      <c r="BB154">
+        <v>0</v>
+      </c>
+      <c r="BC154">
+        <v>0</v>
+      </c>
+      <c r="BD154">
+        <v>0</v>
+      </c>
+      <c r="BE154">
+        <v>0</v>
+      </c>
+      <c r="BF154">
+        <v>4</v>
+      </c>
+      <c r="BG154">
+        <v>4</v>
+      </c>
+      <c r="BH154">
+        <v>1</v>
+      </c>
+      <c r="BI154">
+        <v>10</v>
+      </c>
+      <c r="BJ154">
+        <v>5</v>
+      </c>
+      <c r="BK154">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="155" spans="1:63">
+      <c r="A155" s="1">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>4497327</v>
+      </c>
+      <c r="C155" t="s">
+        <v>63</v>
+      </c>
+      <c r="D155" t="s">
+        <v>64</v>
+      </c>
+      <c r="E155" s="2">
+        <v>44997.45833333334</v>
+      </c>
+      <c r="F155">
+        <v>22</v>
+      </c>
+      <c r="G155" t="s">
+        <v>75</v>
+      </c>
+      <c r="H155" t="s">
+        <v>76</v>
+      </c>
+      <c r="I155">
+        <v>1</v>
+      </c>
+      <c r="J155">
+        <v>1</v>
+      </c>
+      <c r="K155">
+        <v>2</v>
+      </c>
+      <c r="L155">
+        <v>2</v>
+      </c>
+      <c r="M155">
+        <v>1</v>
+      </c>
+      <c r="N155">
+        <v>3</v>
+      </c>
+      <c r="O155" t="s">
+        <v>176</v>
+      </c>
+      <c r="P155" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q155">
+        <v>4</v>
+      </c>
+      <c r="R155">
+        <v>5</v>
+      </c>
+      <c r="S155">
+        <v>9</v>
+      </c>
+      <c r="T155">
+        <v>2.75</v>
+      </c>
+      <c r="U155">
+        <v>2.2</v>
+      </c>
+      <c r="V155">
+        <v>3.6</v>
+      </c>
+      <c r="W155">
+        <v>1.4</v>
+      </c>
+      <c r="X155">
+        <v>2.73</v>
+      </c>
+      <c r="Y155">
+        <v>2.9</v>
+      </c>
+      <c r="Z155">
+        <v>1.36</v>
+      </c>
+      <c r="AA155">
+        <v>7.2</v>
+      </c>
+      <c r="AB155">
+        <v>1.06</v>
+      </c>
+      <c r="AC155">
+        <v>2.05</v>
+      </c>
+      <c r="AD155">
+        <v>3.3</v>
+      </c>
+      <c r="AE155">
+        <v>3</v>
+      </c>
+      <c r="AF155">
+        <v>1.07</v>
+      </c>
+      <c r="AG155">
+        <v>7.5</v>
+      </c>
+      <c r="AH155">
+        <v>1.3</v>
+      </c>
+      <c r="AI155">
+        <v>3.08</v>
+      </c>
+      <c r="AJ155">
+        <v>1.95</v>
+      </c>
+      <c r="AK155">
+        <v>1.85</v>
+      </c>
+      <c r="AL155">
+        <v>1.78</v>
+      </c>
+      <c r="AM155">
+        <v>1.88</v>
+      </c>
+      <c r="AN155">
+        <v>1.28</v>
+      </c>
+      <c r="AO155">
+        <v>1.28</v>
+      </c>
+      <c r="AP155">
+        <v>1.68</v>
+      </c>
+      <c r="AQ155">
+        <v>0.9</v>
+      </c>
+      <c r="AR155">
+        <v>0.4</v>
+      </c>
+      <c r="AS155">
+        <v>1.09</v>
+      </c>
+      <c r="AT155">
+        <v>0.36</v>
+      </c>
+      <c r="AU155">
+        <v>1.27</v>
+      </c>
+      <c r="AV155">
+        <v>1.34</v>
+      </c>
+      <c r="AW155">
+        <v>2.61</v>
+      </c>
+      <c r="AX155">
+        <v>0</v>
+      </c>
+      <c r="AY155">
+        <v>0</v>
+      </c>
+      <c r="AZ155">
+        <v>0</v>
+      </c>
+      <c r="BA155">
+        <v>0</v>
+      </c>
+      <c r="BB155">
+        <v>0</v>
+      </c>
+      <c r="BC155">
+        <v>0</v>
+      </c>
+      <c r="BD155">
+        <v>0</v>
+      </c>
+      <c r="BE155">
+        <v>0</v>
+      </c>
+      <c r="BF155">
+        <v>7</v>
+      </c>
+      <c r="BG155">
+        <v>3</v>
+      </c>
+      <c r="BH155">
+        <v>4</v>
+      </c>
+      <c r="BI155">
+        <v>4</v>
+      </c>
+      <c r="BJ155">
+        <v>11</v>
+      </c>
+      <c r="BK155">
         <v>7</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Malta Maltese Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Malta Maltese Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK155"/>
+  <dimension ref="A1:BK162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,10 +900,10 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT3" t="n">
         <v>0.45</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT4" t="n">
         <v>0.36</v>
@@ -1715,7 +1715,7 @@
         <v>1.73</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.4</v>
+        <v>0.64</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>1</v>
       </c>
       <c r="AT7" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT8" t="n">
         <v>2.08</v>
@@ -2324,7 +2324,7 @@
         <v>0.33</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AT10" t="n">
         <v>1.55</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>1.09</v>
       </c>
       <c r="AT12" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AT13" t="n">
         <v>2.17</v>
@@ -3339,7 +3339,7 @@
         <v>1.58</v>
       </c>
       <c r="AT14" t="n">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3539,10 +3539,10 @@
         <v>1</v>
       </c>
       <c r="AS15" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT15" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU15" t="n">
         <v>1.43</v>
@@ -3742,7 +3742,7 @@
         <v>3</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT16" t="n">
         <v>1.27</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AT17" t="n">
         <v>0.36</v>
@@ -4151,7 +4151,7 @@
         <v>1</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU18" t="n">
         <v>0.78</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT19" t="n">
         <v>1.55</v>
@@ -4557,7 +4557,7 @@
         <v>1.55</v>
       </c>
       <c r="AT20" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AU20" t="n">
         <v>1.02</v>
@@ -4760,7 +4760,7 @@
         <v>2.82</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.4</v>
+        <v>0.64</v>
       </c>
       <c r="AU21" t="n">
         <v>0</v>
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT23" t="n">
         <v>0.45</v>
@@ -5369,7 +5369,7 @@
         <v>1.73</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AU24" t="n">
         <v>2.29</v>
@@ -5572,7 +5572,7 @@
         <v>0.33</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AU25" t="n">
         <v>0.74</v>
@@ -5775,7 +5775,7 @@
         <v>1.09</v>
       </c>
       <c r="AT26" t="n">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AU26" t="n">
         <v>0</v>
@@ -5975,7 +5975,7 @@
         <v>3</v>
       </c>
       <c r="AS27" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AT27" t="n">
         <v>2.17</v>
@@ -6381,7 +6381,7 @@
         <v>3</v>
       </c>
       <c r="AS29" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AT29" t="n">
         <v>1.55</v>
@@ -6587,7 +6587,7 @@
         <v>2.82</v>
       </c>
       <c r="AT30" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU30" t="n">
         <v>1.19</v>
@@ -6790,7 +6790,7 @@
         <v>1.55</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU31" t="n">
         <v>1.04</v>
@@ -6990,7 +6990,7 @@
         <v>0.5</v>
       </c>
       <c r="AS32" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AT32" t="n">
         <v>1.55</v>
@@ -7193,7 +7193,7 @@
         <v>3</v>
       </c>
       <c r="AS33" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AT33" t="n">
         <v>1.27</v>
@@ -7396,10 +7396,10 @@
         <v>1.5</v>
       </c>
       <c r="AS34" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AU34" t="n">
         <v>1.31</v>
@@ -7599,10 +7599,10 @@
         <v>0</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.4</v>
+        <v>0.64</v>
       </c>
       <c r="AU35" t="n">
         <v>1.82</v>
@@ -7802,10 +7802,10 @@
         <v>2</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT36" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AU36" t="n">
         <v>1.57</v>
@@ -8211,7 +8211,7 @@
         <v>1</v>
       </c>
       <c r="AT38" t="n">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AU38" t="n">
         <v>1.3</v>
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="AS39" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AT39" t="n">
         <v>0.36</v>
@@ -8614,7 +8614,7 @@
         <v>3</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT40" t="n">
         <v>1.55</v>
@@ -8820,7 +8820,7 @@
         <v>1.73</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AU41" t="n">
         <v>1.96</v>
@@ -9426,10 +9426,10 @@
         <v>3</v>
       </c>
       <c r="AS44" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT44" t="n">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AU44" t="n">
         <v>1.46</v>
@@ -9632,7 +9632,7 @@
         <v>1.55</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AU45" t="n">
         <v>1.13</v>
@@ -9832,10 +9832,10 @@
         <v>0</v>
       </c>
       <c r="AS46" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AT46" t="n">
-        <v>0.4</v>
+        <v>0.64</v>
       </c>
       <c r="AU46" t="n">
         <v>1.16</v>
@@ -10035,10 +10035,10 @@
         <v>0.33</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT47" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU47" t="n">
         <v>1.79</v>
@@ -10238,10 +10238,10 @@
         <v>2.33</v>
       </c>
       <c r="AS48" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AT48" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AU48" t="n">
         <v>0.72</v>
@@ -10441,10 +10441,10 @@
         <v>0.67</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU49" t="n">
         <v>1.51</v>
@@ -10644,7 +10644,7 @@
         <v>1.33</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT50" t="n">
         <v>1.55</v>
@@ -11053,7 +11053,7 @@
         <v>2.82</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AU52" t="n">
         <v>1.35</v>
@@ -12065,7 +12065,7 @@
         <v>2.33</v>
       </c>
       <c r="AS57" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AT57" t="n">
         <v>1.55</v>
@@ -12268,10 +12268,10 @@
         <v>1.75</v>
       </c>
       <c r="AS58" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AU58" t="n">
         <v>1.32</v>
@@ -12471,10 +12471,10 @@
         <v>0.75</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AU59" t="n">
         <v>1.46</v>
@@ -12674,10 +12674,10 @@
         <v>0.75</v>
       </c>
       <c r="AS60" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU60" t="n">
         <v>0.8</v>
@@ -12877,10 +12877,10 @@
         <v>0.25</v>
       </c>
       <c r="AS61" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AT61" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU61" t="n">
         <v>1.03</v>
@@ -13080,10 +13080,10 @@
         <v>0.75</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.4</v>
+        <v>0.64</v>
       </c>
       <c r="AU62" t="n">
         <v>1.41</v>
@@ -13283,10 +13283,10 @@
         <v>2.5</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT63" t="n">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AU63" t="n">
         <v>1.61</v>
@@ -13486,10 +13486,10 @@
         <v>2.5</v>
       </c>
       <c r="AS64" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AT64" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AU64" t="n">
         <v>1.91</v>
@@ -15110,7 +15110,7 @@
         <v>2.2</v>
       </c>
       <c r="AS72" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT72" t="n">
         <v>2.08</v>
@@ -15316,7 +15316,7 @@
         <v>1.58</v>
       </c>
       <c r="AT73" t="n">
-        <v>0.4</v>
+        <v>0.64</v>
       </c>
       <c r="AU73" t="n">
         <v>1.56</v>
@@ -15516,10 +15516,10 @@
         <v>1.2</v>
       </c>
       <c r="AS74" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AU74" t="n">
         <v>0.89</v>
@@ -15719,10 +15719,10 @@
         <v>0.8</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT75" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU75" t="n">
         <v>1.42</v>
@@ -15922,10 +15922,10 @@
         <v>2</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT76" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AU76" t="n">
         <v>1.48</v>
@@ -16125,10 +16125,10 @@
         <v>0.8</v>
       </c>
       <c r="AS77" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU77" t="n">
         <v>1.6</v>
@@ -16328,10 +16328,10 @@
         <v>2.6</v>
       </c>
       <c r="AS78" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AT78" t="n">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AU78" t="n">
         <v>0.78</v>
@@ -16531,7 +16531,7 @@
         <v>2</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT79" t="n">
         <v>2.17</v>
@@ -16737,7 +16737,7 @@
         <v>1.09</v>
       </c>
       <c r="AT80" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AU80" t="n">
         <v>1.23</v>
@@ -17952,7 +17952,7 @@
         <v>2.17</v>
       </c>
       <c r="AS86" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT86" t="n">
         <v>2.17</v>
@@ -18158,7 +18158,7 @@
         <v>0.33</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU87" t="n">
         <v>1.01</v>
@@ -18358,7 +18358,7 @@
         <v>2</v>
       </c>
       <c r="AS88" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AT88" t="n">
         <v>2.08</v>
@@ -18561,10 +18561,10 @@
         <v>1.5</v>
       </c>
       <c r="AS89" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AU89" t="n">
         <v>1.61</v>
@@ -18764,10 +18764,10 @@
         <v>2.17</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT90" t="n">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AU90" t="n">
         <v>1.41</v>
@@ -18967,10 +18967,10 @@
         <v>2.17</v>
       </c>
       <c r="AS91" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AU91" t="n">
         <v>0.95</v>
@@ -19173,7 +19173,7 @@
         <v>1.58</v>
       </c>
       <c r="AT92" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU92" t="n">
         <v>1.55</v>
@@ -19373,7 +19373,7 @@
         <v>2.14</v>
       </c>
       <c r="AS93" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AT93" t="n">
         <v>2.08</v>
@@ -19576,7 +19576,7 @@
         <v>1.86</v>
       </c>
       <c r="AS94" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AT94" t="n">
         <v>2.17</v>
@@ -19982,10 +19982,10 @@
         <v>2.29</v>
       </c>
       <c r="AS96" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AT96" t="n">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AU96" t="n">
         <v>1.51</v>
@@ -20185,10 +20185,10 @@
         <v>2.29</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AU97" t="n">
         <v>1.32</v>
@@ -20391,7 +20391,7 @@
         <v>1.58</v>
       </c>
       <c r="AT98" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AU98" t="n">
         <v>1.42</v>
@@ -20594,7 +20594,7 @@
         <v>0.33</v>
       </c>
       <c r="AT99" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU99" t="n">
         <v>0.97</v>
@@ -20794,7 +20794,7 @@
         <v>2</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT100" t="n">
         <v>1.27</v>
@@ -21000,7 +21000,7 @@
         <v>1.73</v>
       </c>
       <c r="AT101" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU101" t="n">
         <v>1.62</v>
@@ -21200,7 +21200,7 @@
         <v>0.17</v>
       </c>
       <c r="AS102" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT102" t="n">
         <v>0.45</v>
@@ -21403,7 +21403,7 @@
         <v>0.67</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT103" t="n">
         <v>0.36</v>
@@ -21812,7 +21812,7 @@
         <v>2.82</v>
       </c>
       <c r="AT105" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AU105" t="n">
         <v>1.6</v>
@@ -22015,7 +22015,7 @@
         <v>1</v>
       </c>
       <c r="AT106" t="n">
-        <v>0.4</v>
+        <v>0.64</v>
       </c>
       <c r="AU106" t="n">
         <v>1.43</v>
@@ -22215,7 +22215,7 @@
         <v>0.14</v>
       </c>
       <c r="AS107" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AT107" t="n">
         <v>0.45</v>
@@ -22421,7 +22421,7 @@
         <v>1.58</v>
       </c>
       <c r="AT108" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AU108" t="n">
         <v>1.26</v>
@@ -22824,7 +22824,7 @@
         <v>2</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT110" t="n">
         <v>2.17</v>
@@ -23027,7 +23027,7 @@
         <v>2.25</v>
       </c>
       <c r="AS111" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AT111" t="n">
         <v>2.08</v>
@@ -23233,7 +23233,7 @@
         <v>0.33</v>
       </c>
       <c r="AT112" t="n">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AU112" t="n">
         <v>0.95</v>
@@ -23433,10 +23433,10 @@
         <v>2</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT113" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AU113" t="n">
         <v>1.59</v>
@@ -23636,7 +23636,7 @@
         <v>0.57</v>
       </c>
       <c r="AS114" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT114" t="n">
         <v>0.36</v>
@@ -23839,7 +23839,7 @@
         <v>1.86</v>
       </c>
       <c r="AS115" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AT115" t="n">
         <v>1.27</v>
@@ -24045,7 +24045,7 @@
         <v>1.55</v>
       </c>
       <c r="AT116" t="n">
-        <v>0.4</v>
+        <v>0.64</v>
       </c>
       <c r="AU116" t="n">
         <v>1.37</v>
@@ -24245,7 +24245,7 @@
         <v>1.29</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT117" t="n">
         <v>1.55</v>
@@ -24451,7 +24451,7 @@
         <v>1</v>
       </c>
       <c r="AT118" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU118" t="n">
         <v>1.45</v>
@@ -24654,7 +24654,7 @@
         <v>2.82</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU119" t="n">
         <v>1.66</v>
@@ -24857,7 +24857,7 @@
         <v>1.09</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AU120" t="n">
         <v>1.06</v>
@@ -25060,7 +25060,7 @@
         <v>1.73</v>
       </c>
       <c r="AT121" t="n">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AU121" t="n">
         <v>1.78</v>
@@ -25260,7 +25260,7 @@
         <v>0.5</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT122" t="n">
         <v>0.36</v>
@@ -25669,7 +25669,7 @@
         <v>1.09</v>
       </c>
       <c r="AT124" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AU124" t="n">
         <v>1.22</v>
@@ -26275,7 +26275,7 @@
         <v>0.13</v>
       </c>
       <c r="AS127" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AT127" t="n">
         <v>0.45</v>
@@ -26478,7 +26478,7 @@
         <v>1.63</v>
       </c>
       <c r="AS128" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT128" t="n">
         <v>1.27</v>
@@ -26684,7 +26684,7 @@
         <v>2.82</v>
       </c>
       <c r="AT129" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AU129" t="n">
         <v>1.73</v>
@@ -26884,10 +26884,10 @@
         <v>1.75</v>
       </c>
       <c r="AS130" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AT130" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AU130" t="n">
         <v>0.78</v>
@@ -27087,10 +27087,10 @@
         <v>0.5</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT131" t="n">
-        <v>0.4</v>
+        <v>0.64</v>
       </c>
       <c r="AU131" t="n">
         <v>1.59</v>
@@ -27290,10 +27290,10 @@
         <v>1.11</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU132" t="n">
         <v>1.57</v>
@@ -27493,7 +27493,7 @@
         <v>1.25</v>
       </c>
       <c r="AS133" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AT133" t="n">
         <v>1.55</v>
@@ -27699,7 +27699,7 @@
         <v>1.55</v>
       </c>
       <c r="AT134" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU134" t="n">
         <v>1.35</v>
@@ -28102,7 +28102,7 @@
         <v>1.44</v>
       </c>
       <c r="AS136" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AT136" t="n">
         <v>1.27</v>
@@ -28714,7 +28714,7 @@
         <v>1</v>
       </c>
       <c r="AT139" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AU139" t="n">
         <v>1.37</v>
@@ -29320,10 +29320,10 @@
         <v>0.44</v>
       </c>
       <c r="AS142" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="AT142" t="n">
         <v>0.64</v>
-      </c>
-      <c r="AT142" t="n">
-        <v>0.4</v>
       </c>
       <c r="AU142" t="n">
         <v>1.08</v>
@@ -29523,10 +29523,10 @@
         <v>1</v>
       </c>
       <c r="AS143" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AT143" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU143" t="n">
         <v>0.78</v>
@@ -29726,10 +29726,10 @@
         <v>1.89</v>
       </c>
       <c r="AS144" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT144" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AU144" t="n">
         <v>1.38</v>
@@ -29929,10 +29929,10 @@
         <v>1.6</v>
       </c>
       <c r="AS145" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT145" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AU145" t="n">
         <v>1.6</v>
@@ -30132,7 +30132,7 @@
         <v>1.44</v>
       </c>
       <c r="AS146" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT146" t="n">
         <v>1.55</v>
@@ -30335,10 +30335,10 @@
         <v>1.1</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT147" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU147" t="n">
         <v>1.72</v>
@@ -30541,7 +30541,7 @@
         <v>1.55</v>
       </c>
       <c r="AT148" t="n">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AU148" t="n">
         <v>1.31</v>
@@ -32014,6 +32014,1427 @@
       </c>
       <c r="BK155" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B156" t="n">
+        <v>4497330</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Malta Maltese Premier League</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E156" s="2" t="n">
+        <v>45017.375</v>
+      </c>
+      <c r="F156" t="n">
+        <v>23</v>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>Gzira United</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>Mosta</t>
+        </is>
+      </c>
+      <c r="I156" t="n">
+        <v>1</v>
+      </c>
+      <c r="J156" t="n">
+        <v>1</v>
+      </c>
+      <c r="K156" t="n">
+        <v>2</v>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="n">
+        <v>2</v>
+      </c>
+      <c r="N156" t="n">
+        <v>3</v>
+      </c>
+      <c r="O156" t="inlineStr">
+        <is>
+          <t>['10']</t>
+        </is>
+      </c>
+      <c r="P156" t="inlineStr">
+        <is>
+          <t>['16', '79']</t>
+        </is>
+      </c>
+      <c r="Q156" t="n">
+        <v>7</v>
+      </c>
+      <c r="R156" t="n">
+        <v>3</v>
+      </c>
+      <c r="S156" t="n">
+        <v>10</v>
+      </c>
+      <c r="T156" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U156" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V156" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W156" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X156" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="Y156" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="Z156" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA156" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB156" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC156" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AD156" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE156" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AF156" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG156" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH156" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AI156" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AJ156" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK156" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL156" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AM156" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN156" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AO156" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP156" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AQ156" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AR156" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AS156" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AT156" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AU156" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AV156" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AW156" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AX156" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY156" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ156" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA156" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB156" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC156" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD156" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE156" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF156" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG156" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH156" t="n">
+        <v>15</v>
+      </c>
+      <c r="BI156" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ156" t="n">
+        <v>23</v>
+      </c>
+      <c r="BK156" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B157" t="n">
+        <v>4497333</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Malta Maltese Premier League</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E157" s="2" t="n">
+        <v>45017.375</v>
+      </c>
+      <c r="F157" t="n">
+        <v>23</v>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>Gudja United</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>Sirens</t>
+        </is>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="n">
+        <v>0</v>
+      </c>
+      <c r="L157" t="n">
+        <v>0</v>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="n">
+        <v>1</v>
+      </c>
+      <c r="O157" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P157" t="inlineStr">
+        <is>
+          <t>['62']</t>
+        </is>
+      </c>
+      <c r="Q157" t="n">
+        <v>5</v>
+      </c>
+      <c r="R157" t="n">
+        <v>0</v>
+      </c>
+      <c r="S157" t="n">
+        <v>5</v>
+      </c>
+      <c r="T157" t="n">
+        <v>0</v>
+      </c>
+      <c r="U157" t="n">
+        <v>0</v>
+      </c>
+      <c r="V157" t="n">
+        <v>0</v>
+      </c>
+      <c r="W157" t="n">
+        <v>0</v>
+      </c>
+      <c r="X157" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y157" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC157" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AD157" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AE157" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AF157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ157" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK157" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ157" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AR157" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AS157" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AT157" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU157" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AV157" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW157" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AX157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ157" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA157" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB157" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC157" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD157" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE157" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF157" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG157" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH157" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI157" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ157" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK157" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B158" t="n">
+        <v>4497332</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Malta Maltese Premier League</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E158" s="2" t="n">
+        <v>45017.46875</v>
+      </c>
+      <c r="F158" t="n">
+        <v>23</v>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>Balzan</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>Hamrun Spartans</t>
+        </is>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="n">
+        <v>3</v>
+      </c>
+      <c r="K158" t="n">
+        <v>3</v>
+      </c>
+      <c r="L158" t="n">
+        <v>0</v>
+      </c>
+      <c r="M158" t="n">
+        <v>4</v>
+      </c>
+      <c r="N158" t="n">
+        <v>4</v>
+      </c>
+      <c r="O158" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P158" t="inlineStr">
+        <is>
+          <t>['21', '30', '40', '70']</t>
+        </is>
+      </c>
+      <c r="Q158" t="n">
+        <v>5</v>
+      </c>
+      <c r="R158" t="n">
+        <v>4</v>
+      </c>
+      <c r="S158" t="n">
+        <v>9</v>
+      </c>
+      <c r="T158" t="n">
+        <v>0</v>
+      </c>
+      <c r="U158" t="n">
+        <v>0</v>
+      </c>
+      <c r="V158" t="n">
+        <v>0</v>
+      </c>
+      <c r="W158" t="n">
+        <v>0</v>
+      </c>
+      <c r="X158" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y158" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z158" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA158" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB158" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC158" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AD158" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="AE158" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AF158" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG158" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH158" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI158" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ158" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AK158" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AL158" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM158" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN158" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO158" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP158" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ158" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR158" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AS158" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AT158" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AU158" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AV158" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AW158" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AX158" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY158" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ158" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA158" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB158" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC158" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD158" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE158" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF158" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG158" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH158" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI158" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ158" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK158" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B159" t="n">
+        <v>4497334</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Malta Maltese Premier League</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E159" s="2" t="n">
+        <v>45017.46875</v>
+      </c>
+      <c r="F159" t="n">
+        <v>23</v>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>Zebbug Rangers</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>Valletta</t>
+        </is>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="n">
+        <v>2</v>
+      </c>
+      <c r="K159" t="n">
+        <v>2</v>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="n">
+        <v>5</v>
+      </c>
+      <c r="N159" t="n">
+        <v>6</v>
+      </c>
+      <c r="O159" t="inlineStr">
+        <is>
+          <t>['88']</t>
+        </is>
+      </c>
+      <c r="P159" t="inlineStr">
+        <is>
+          <t>['7', '26', '47', '56', '87']</t>
+        </is>
+      </c>
+      <c r="Q159" t="n">
+        <v>6</v>
+      </c>
+      <c r="R159" t="n">
+        <v>4</v>
+      </c>
+      <c r="S159" t="n">
+        <v>10</v>
+      </c>
+      <c r="T159" t="n">
+        <v>0</v>
+      </c>
+      <c r="U159" t="n">
+        <v>0</v>
+      </c>
+      <c r="V159" t="n">
+        <v>0</v>
+      </c>
+      <c r="W159" t="n">
+        <v>0</v>
+      </c>
+      <c r="X159" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y159" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z159" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA159" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB159" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC159" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AD159" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE159" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AF159" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG159" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH159" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI159" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ159" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AK159" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AL159" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM159" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN159" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO159" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP159" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ159" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AR159" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AS159" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AT159" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AU159" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AV159" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AW159" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AX159" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY159" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ159" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA159" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB159" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC159" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD159" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE159" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF159" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG159" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH159" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI159" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ159" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK159" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B160" t="n">
+        <v>4497331</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Malta Maltese Premier League</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E160" s="2" t="n">
+        <v>45018.27083333334</v>
+      </c>
+      <c r="F160" t="n">
+        <v>23</v>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>Marsaxlokk</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>Pietà Hotspurs</t>
+        </is>
+      </c>
+      <c r="I160" t="n">
+        <v>1</v>
+      </c>
+      <c r="J160" t="n">
+        <v>1</v>
+      </c>
+      <c r="K160" t="n">
+        <v>2</v>
+      </c>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="n">
+        <v>2</v>
+      </c>
+      <c r="N160" t="n">
+        <v>3</v>
+      </c>
+      <c r="O160" t="inlineStr">
+        <is>
+          <t>['43']</t>
+        </is>
+      </c>
+      <c r="P160" t="inlineStr">
+        <is>
+          <t>['45+3', '69']</t>
+        </is>
+      </c>
+      <c r="Q160" t="n">
+        <v>3</v>
+      </c>
+      <c r="R160" t="n">
+        <v>1</v>
+      </c>
+      <c r="S160" t="n">
+        <v>4</v>
+      </c>
+      <c r="T160" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U160" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V160" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W160" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X160" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Y160" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Z160" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA160" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AB160" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC160" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AD160" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AE160" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="AF160" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG160" t="n">
+        <v>16.25</v>
+      </c>
+      <c r="AH160" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI160" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AJ160" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK160" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AL160" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AM160" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN160" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AO160" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AP160" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AQ160" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AR160" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AS160" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="AT160" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AU160" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AV160" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="AW160" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AX160" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY160" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ160" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA160" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB160" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC160" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD160" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE160" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF160" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG160" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH160" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI160" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ160" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK160" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B161" t="n">
+        <v>4497329</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Malta Maltese Premier League</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E161" s="2" t="n">
+        <v>45018.41666666666</v>
+      </c>
+      <c r="F161" t="n">
+        <v>23</v>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>Birkirkara</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>Hibernians</t>
+        </is>
+      </c>
+      <c r="I161" t="n">
+        <v>4</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
+      <c r="K161" t="n">
+        <v>4</v>
+      </c>
+      <c r="L161" t="n">
+        <v>5</v>
+      </c>
+      <c r="M161" t="n">
+        <v>0</v>
+      </c>
+      <c r="N161" t="n">
+        <v>5</v>
+      </c>
+      <c r="O161" t="inlineStr">
+        <is>
+          <t>['5', '21', '27', '38', '58']</t>
+        </is>
+      </c>
+      <c r="P161" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q161" t="n">
+        <v>8</v>
+      </c>
+      <c r="R161" t="n">
+        <v>4</v>
+      </c>
+      <c r="S161" t="n">
+        <v>12</v>
+      </c>
+      <c r="T161" t="n">
+        <v>3</v>
+      </c>
+      <c r="U161" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V161" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W161" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X161" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y161" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z161" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AA161" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AB161" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC161" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AD161" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE161" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AF161" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG161" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH161" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AI161" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="AJ161" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK161" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL161" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AM161" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN161" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AO161" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP161" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ161" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AR161" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS161" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AT161" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AU161" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AV161" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AW161" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AX161" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY161" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ161" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA161" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB161" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC161" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD161" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE161" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF161" t="n">
+        <v>12</v>
+      </c>
+      <c r="BG161" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH161" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI161" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ161" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK161" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B162" t="n">
+        <v>4497335</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Malta Maltese Premier League</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E162" s="2" t="n">
+        <v>45018.41666666666</v>
+      </c>
+      <c r="F162" t="n">
+        <v>23</v>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>Santa Lucia</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>Floriana</t>
+        </is>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K162" t="n">
+        <v>0</v>
+      </c>
+      <c r="L162" t="n">
+        <v>0</v>
+      </c>
+      <c r="M162" t="n">
+        <v>2</v>
+      </c>
+      <c r="N162" t="n">
+        <v>2</v>
+      </c>
+      <c r="O162" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P162" t="inlineStr">
+        <is>
+          <t>['54', '71']</t>
+        </is>
+      </c>
+      <c r="Q162" t="n">
+        <v>2</v>
+      </c>
+      <c r="R162" t="n">
+        <v>16</v>
+      </c>
+      <c r="S162" t="n">
+        <v>18</v>
+      </c>
+      <c r="T162" t="n">
+        <v>0</v>
+      </c>
+      <c r="U162" t="n">
+        <v>0</v>
+      </c>
+      <c r="V162" t="n">
+        <v>0</v>
+      </c>
+      <c r="W162" t="n">
+        <v>0</v>
+      </c>
+      <c r="X162" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y162" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z162" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA162" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB162" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC162" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD162" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE162" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF162" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG162" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH162" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI162" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ162" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK162" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL162" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM162" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN162" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO162" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP162" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ162" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AR162" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS162" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="AT162" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AU162" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AV162" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AW162" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AX162" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY162" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ162" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA162" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB162" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC162" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD162" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE162" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF162" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG162" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH162" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI162" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ162" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK162" t="n">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Malta Maltese Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Malta Maltese Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK162"/>
+  <dimension ref="A1:BK166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT4" t="n">
         <v>0.36</v>
@@ -1512,7 +1512,7 @@
         <v>1.55</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT6" t="n">
         <v>0.64</v>
@@ -1918,7 +1918,7 @@
         <v>1</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AT9" t="n">
         <v>1.83</v>
@@ -2527,7 +2527,7 @@
         <v>0.75</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT12" t="n">
         <v>1.17</v>
@@ -3745,7 +3745,7 @@
         <v>1.27</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU16" t="n">
         <v>1.7</v>
@@ -4351,10 +4351,10 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU19" t="n">
         <v>2.38</v>
@@ -4557,7 +4557,7 @@
         <v>1.55</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AU20" t="n">
         <v>1.02</v>
@@ -4963,7 +4963,7 @@
         <v>2.82</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU22" t="n">
         <v>1.71</v>
@@ -5366,7 +5366,7 @@
         <v>3</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT24" t="n">
         <v>1.83</v>
@@ -5569,7 +5569,7 @@
         <v>3</v>
       </c>
       <c r="AS25" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AT25" t="n">
         <v>1.92</v>
@@ -5772,7 +5772,7 @@
         <v>3</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT26" t="n">
         <v>2.58</v>
@@ -6384,7 +6384,7 @@
         <v>0.58</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU29" t="n">
         <v>0.48</v>
@@ -6993,7 +6993,7 @@
         <v>0.75</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU32" t="n">
         <v>1.32</v>
@@ -7196,7 +7196,7 @@
         <v>0.58</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU33" t="n">
         <v>0.5</v>
@@ -7599,7 +7599,7 @@
         <v>0</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT35" t="n">
         <v>0.64</v>
@@ -7805,7 +7805,7 @@
         <v>1.27</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AU36" t="n">
         <v>1.57</v>
@@ -8617,7 +8617,7 @@
         <v>1.17</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU40" t="n">
         <v>1.52</v>
@@ -8817,7 +8817,7 @@
         <v>3</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT41" t="n">
         <v>1.92</v>
@@ -9020,7 +9020,7 @@
         <v>2</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT42" t="n">
         <v>2.08</v>
@@ -9223,7 +9223,7 @@
         <v>3</v>
       </c>
       <c r="AS43" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AT43" t="n">
         <v>2.17</v>
@@ -10035,7 +10035,7 @@
         <v>0.33</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT47" t="n">
         <v>1.17</v>
@@ -10241,7 +10241,7 @@
         <v>0.58</v>
       </c>
       <c r="AT48" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AU48" t="n">
         <v>0.72</v>
@@ -10647,7 +10647,7 @@
         <v>1.17</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU50" t="n">
         <v>1.46</v>
@@ -10847,7 +10847,7 @@
         <v>0</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT51" t="n">
         <v>0.45</v>
@@ -11256,7 +11256,7 @@
         <v>1.58</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU53" t="n">
         <v>1.54</v>
@@ -11659,7 +11659,7 @@
         <v>0.33</v>
       </c>
       <c r="AS55" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AT55" t="n">
         <v>0.36</v>
@@ -11862,7 +11862,7 @@
         <v>3</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT56" t="n">
         <v>2.17</v>
@@ -12068,7 +12068,7 @@
         <v>0.58</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU57" t="n">
         <v>1.91</v>
@@ -13283,7 +13283,7 @@
         <v>2.5</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT63" t="n">
         <v>2.58</v>
@@ -13489,7 +13489,7 @@
         <v>0.58</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AU64" t="n">
         <v>1.91</v>
@@ -13895,7 +13895,7 @@
         <v>1.58</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU66" t="n">
         <v>1.54</v>
@@ -14095,10 +14095,10 @@
         <v>1.75</v>
       </c>
       <c r="AS67" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU67" t="n">
         <v>1.03</v>
@@ -14298,7 +14298,7 @@
         <v>1</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT68" t="n">
         <v>0.36</v>
@@ -14501,10 +14501,10 @@
         <v>2.25</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU69" t="n">
         <v>1.29</v>
@@ -16531,7 +16531,7 @@
         <v>2</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT79" t="n">
         <v>2.17</v>
@@ -16734,10 +16734,10 @@
         <v>2.2</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT80" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AU80" t="n">
         <v>1.23</v>
@@ -16937,10 +16937,10 @@
         <v>1.6</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU81" t="n">
         <v>1.67</v>
@@ -17343,10 +17343,10 @@
         <v>1.6</v>
       </c>
       <c r="AS83" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU83" t="n">
         <v>1.01</v>
@@ -17752,7 +17752,7 @@
         <v>1</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU85" t="n">
         <v>1.4</v>
@@ -18155,7 +18155,7 @@
         <v>1.17</v>
       </c>
       <c r="AS87" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AT87" t="n">
         <v>1.33</v>
@@ -19779,10 +19779,10 @@
         <v>1.83</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU95" t="n">
         <v>1.05</v>
@@ -20591,7 +20591,7 @@
         <v>1</v>
       </c>
       <c r="AS99" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AT99" t="n">
         <v>1.17</v>
@@ -20794,10 +20794,10 @@
         <v>2</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU100" t="n">
         <v>1.64</v>
@@ -20997,7 +20997,7 @@
         <v>1.43</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT101" t="n">
         <v>1.33</v>
@@ -21609,7 +21609,7 @@
         <v>1.55</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU104" t="n">
         <v>1.46</v>
@@ -21812,7 +21812,7 @@
         <v>2.82</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AU105" t="n">
         <v>1.6</v>
@@ -22621,10 +22621,10 @@
         <v>1.57</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT109" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU109" t="n">
         <v>1.75</v>
@@ -23230,7 +23230,7 @@
         <v>2.38</v>
       </c>
       <c r="AS112" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AT112" t="n">
         <v>2.58</v>
@@ -23433,10 +23433,10 @@
         <v>2</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT113" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AU113" t="n">
         <v>1.59</v>
@@ -23842,7 +23842,7 @@
         <v>0.75</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU115" t="n">
         <v>0.78</v>
@@ -24248,7 +24248,7 @@
         <v>1.27</v>
       </c>
       <c r="AT117" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU117" t="n">
         <v>1.74</v>
@@ -24854,7 +24854,7 @@
         <v>1.88</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT120" t="n">
         <v>1.83</v>
@@ -25057,7 +25057,7 @@
         <v>2.44</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT121" t="n">
         <v>2.58</v>
@@ -25463,7 +25463,7 @@
         <v>2.33</v>
       </c>
       <c r="AS123" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AT123" t="n">
         <v>2.08</v>
@@ -25666,7 +25666,7 @@
         <v>1.78</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT124" t="n">
         <v>1.92</v>
@@ -26075,7 +26075,7 @@
         <v>1</v>
       </c>
       <c r="AT126" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU126" t="n">
         <v>1.4</v>
@@ -26481,7 +26481,7 @@
         <v>2.25</v>
       </c>
       <c r="AT128" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU128" t="n">
         <v>1.43</v>
@@ -26887,7 +26887,7 @@
         <v>0.75</v>
       </c>
       <c r="AT130" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AU130" t="n">
         <v>0.78</v>
@@ -27290,7 +27290,7 @@
         <v>1.11</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT132" t="n">
         <v>1.33</v>
@@ -27496,7 +27496,7 @@
         <v>0.58</v>
       </c>
       <c r="AT133" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU133" t="n">
         <v>1.03</v>
@@ -27899,7 +27899,7 @@
         <v>2.4</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT135" t="n">
         <v>2.08</v>
@@ -28105,7 +28105,7 @@
         <v>0.58</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU136" t="n">
         <v>1.43</v>
@@ -28305,7 +28305,7 @@
         <v>0.22</v>
       </c>
       <c r="AS137" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AT137" t="n">
         <v>0.45</v>
@@ -28917,7 +28917,7 @@
         <v>2.82</v>
       </c>
       <c r="AT140" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU140" t="n">
         <v>1.74</v>
@@ -29117,7 +29117,7 @@
         <v>2.2</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT141" t="n">
         <v>2.17</v>
@@ -29729,7 +29729,7 @@
         <v>1.17</v>
       </c>
       <c r="AT144" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AU144" t="n">
         <v>1.38</v>
@@ -29929,7 +29929,7 @@
         <v>1.6</v>
       </c>
       <c r="AS145" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT145" t="n">
         <v>1.83</v>
@@ -30135,7 +30135,7 @@
         <v>2.25</v>
       </c>
       <c r="AT146" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU146" t="n">
         <v>1.48</v>
@@ -30947,7 +30947,7 @@
         <v>1.58</v>
       </c>
       <c r="AT150" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU150" t="n">
         <v>1.39</v>
@@ -31350,7 +31350,7 @@
         <v>0.5</v>
       </c>
       <c r="AS152" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT152" t="n">
         <v>0.45</v>
@@ -31556,7 +31556,7 @@
         <v>1.55</v>
       </c>
       <c r="AT153" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU153" t="n">
         <v>1.27</v>
@@ -31756,10 +31756,10 @@
         <v>1.4</v>
       </c>
       <c r="AS154" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AT154" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU154" t="n">
         <v>0.96</v>
@@ -31959,7 +31959,7 @@
         <v>0.4</v>
       </c>
       <c r="AS155" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT155" t="n">
         <v>0.36</v>
@@ -32162,7 +32162,7 @@
         <v>1.82</v>
       </c>
       <c r="AS156" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT156" t="n">
         <v>1.92</v>
@@ -33180,7 +33180,7 @@
         <v>2.25</v>
       </c>
       <c r="AT161" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AU161" t="n">
         <v>1.47</v>
@@ -33434,6 +33434,818 @@
         <v>-1</v>
       </c>
       <c r="BK162" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B163" t="n">
+        <v>4497336</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Malta Maltese Premier League</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E163" s="2" t="n">
+        <v>45024.375</v>
+      </c>
+      <c r="F163" t="n">
+        <v>24</v>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>Gzira United</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>Birkirkara</t>
+        </is>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="n">
+        <v>1</v>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="n">
+        <v>3</v>
+      </c>
+      <c r="N163" t="n">
+        <v>4</v>
+      </c>
+      <c r="O163" t="inlineStr">
+        <is>
+          <t>['90+5']</t>
+        </is>
+      </c>
+      <c r="P163" t="inlineStr">
+        <is>
+          <t>['33', '72', '75']</t>
+        </is>
+      </c>
+      <c r="Q163" t="n">
+        <v>7</v>
+      </c>
+      <c r="R163" t="n">
+        <v>3</v>
+      </c>
+      <c r="S163" t="n">
+        <v>10</v>
+      </c>
+      <c r="T163" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U163" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V163" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W163" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X163" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y163" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Z163" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AA163" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AB163" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC163" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AD163" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE163" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AF163" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG163" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AH163" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AI163" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AJ163" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK163" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL163" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM163" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN163" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO163" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP163" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ163" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AR163" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AS163" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AT163" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AU163" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AV163" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AW163" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="AX163" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY163" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ163" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA163" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB163" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC163" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD163" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE163" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF163" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG163" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH163" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI163" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ163" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK163" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B164" t="n">
+        <v>4497341</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Malta Maltese Premier League</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E164" s="2" t="n">
+        <v>45024.375</v>
+      </c>
+      <c r="F164" t="n">
+        <v>24</v>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>Floriana</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>Gudja United</t>
+        </is>
+      </c>
+      <c r="I164" t="n">
+        <v>1</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="n">
+        <v>2</v>
+      </c>
+      <c r="O164" t="inlineStr">
+        <is>
+          <t>['7']</t>
+        </is>
+      </c>
+      <c r="P164" t="inlineStr">
+        <is>
+          <t>['65']</t>
+        </is>
+      </c>
+      <c r="Q164" t="n">
+        <v>9</v>
+      </c>
+      <c r="R164" t="n">
+        <v>3</v>
+      </c>
+      <c r="S164" t="n">
+        <v>12</v>
+      </c>
+      <c r="T164" t="n">
+        <v>0</v>
+      </c>
+      <c r="U164" t="n">
+        <v>0</v>
+      </c>
+      <c r="V164" t="n">
+        <v>0</v>
+      </c>
+      <c r="W164" t="n">
+        <v>0</v>
+      </c>
+      <c r="X164" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y164" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z164" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA164" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB164" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC164" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD164" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE164" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF164" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG164" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH164" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI164" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ164" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK164" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL164" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM164" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN164" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO164" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP164" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ164" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AR164" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AS164" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT164" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU164" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AV164" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AW164" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AX164" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY164" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ164" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA164" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB164" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC164" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD164" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE164" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF164" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG164" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH164" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI164" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ164" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK164" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B165" t="n">
+        <v>4497337</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Malta Maltese Premier League</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E165" s="2" t="n">
+        <v>45024.46875</v>
+      </c>
+      <c r="F165" t="n">
+        <v>24</v>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>Pietà Hotspurs</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>Hibernians</t>
+        </is>
+      </c>
+      <c r="I165" t="n">
+        <v>1</v>
+      </c>
+      <c r="J165" t="n">
+        <v>2</v>
+      </c>
+      <c r="K165" t="n">
+        <v>3</v>
+      </c>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="n">
+        <v>4</v>
+      </c>
+      <c r="N165" t="n">
+        <v>5</v>
+      </c>
+      <c r="O165" t="inlineStr">
+        <is>
+          <t>['25']</t>
+        </is>
+      </c>
+      <c r="P165" t="inlineStr">
+        <is>
+          <t>['15', '17', '57', '83']</t>
+        </is>
+      </c>
+      <c r="Q165" t="n">
+        <v>4</v>
+      </c>
+      <c r="R165" t="n">
+        <v>5</v>
+      </c>
+      <c r="S165" t="n">
+        <v>9</v>
+      </c>
+      <c r="T165" t="n">
+        <v>6</v>
+      </c>
+      <c r="U165" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V165" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W165" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="X165" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Y165" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Z165" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AA165" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB165" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AC165" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD165" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AE165" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF165" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG165" t="n">
+        <v>24</v>
+      </c>
+      <c r="AH165" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AI165" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="AJ165" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AK165" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AL165" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AM165" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN165" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO165" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AP165" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AQ165" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AR165" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AS165" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="AT165" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AU165" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="AV165" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AW165" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AX165" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY165" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ165" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA165" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB165" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC165" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD165" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE165" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF165" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG165" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH165" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI165" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ165" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK165" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B166" t="n">
+        <v>4497339</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Malta Maltese Premier League</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E166" s="2" t="n">
+        <v>45024.46875</v>
+      </c>
+      <c r="F166" t="n">
+        <v>24</v>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>Sirens</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>Marsaxlokk</t>
+        </is>
+      </c>
+      <c r="I166" t="n">
+        <v>2</v>
+      </c>
+      <c r="J166" t="n">
+        <v>2</v>
+      </c>
+      <c r="K166" t="n">
+        <v>4</v>
+      </c>
+      <c r="L166" t="n">
+        <v>3</v>
+      </c>
+      <c r="M166" t="n">
+        <v>2</v>
+      </c>
+      <c r="N166" t="n">
+        <v>5</v>
+      </c>
+      <c r="O166" t="inlineStr">
+        <is>
+          <t>['10', '32', '83']</t>
+        </is>
+      </c>
+      <c r="P166" t="inlineStr">
+        <is>
+          <t>['41', '45+2']</t>
+        </is>
+      </c>
+      <c r="Q166" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R166" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S166" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T166" t="n">
+        <v>0</v>
+      </c>
+      <c r="U166" t="n">
+        <v>0</v>
+      </c>
+      <c r="V166" t="n">
+        <v>0</v>
+      </c>
+      <c r="W166" t="n">
+        <v>0</v>
+      </c>
+      <c r="X166" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y166" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z166" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA166" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB166" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC166" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AD166" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE166" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF166" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG166" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH166" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI166" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ166" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AK166" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AL166" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM166" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN166" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO166" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP166" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ166" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AR166" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AS166" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT166" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AU166" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AV166" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AW166" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AX166" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY166" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ166" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA166" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB166" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC166" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD166" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE166" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF166" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG166" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH166" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI166" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ166" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK166" t="n">
         <v>-1</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Malta Maltese Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Malta Maltese Premier League_20222023.xlsx
@@ -34108,13 +34108,13 @@
         </is>
       </c>
       <c r="Q166" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R166" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="S166" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="T166" t="n">
         <v>0</v>

--- a/Bases_de_Dados_(2022-2023)/Malta Maltese Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Malta Maltese Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK166"/>
+  <dimension ref="A1:BK169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>1.27</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>1.42</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.36</v>
+        <v>0.58</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT5" t="n">
         <v>1.25</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT7" t="n">
         <v>1.92</v>
@@ -3136,7 +3136,7 @@
         <v>0.58</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0.75</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.36</v>
+        <v>0.58</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT18" t="n">
         <v>1.33</v>
@@ -4554,7 +4554,7 @@
         <v>1</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT20" t="n">
         <v>1.92</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="AT21" t="n">
         <v>0.64</v>
@@ -4960,7 +4960,7 @@
         <v>1</v>
       </c>
       <c r="AS22" t="n">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="AT22" t="n">
         <v>1.42</v>
@@ -5166,7 +5166,7 @@
         <v>1.17</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU23" t="n">
         <v>1.51</v>
@@ -5978,7 +5978,7 @@
         <v>0.58</v>
       </c>
       <c r="AT27" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AU27" t="n">
         <v>0</v>
@@ -6584,7 +6584,7 @@
         <v>0.5</v>
       </c>
       <c r="AS30" t="n">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="AT30" t="n">
         <v>1.17</v>
@@ -6787,7 +6787,7 @@
         <v>0.5</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT31" t="n">
         <v>1.33</v>
@@ -8008,7 +8008,7 @@
         <v>1.58</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU37" t="n">
         <v>1.54</v>
@@ -8208,7 +8208,7 @@
         <v>3</v>
       </c>
       <c r="AS38" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT38" t="n">
         <v>2.58</v>
@@ -8414,7 +8414,7 @@
         <v>0.58</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.36</v>
+        <v>0.58</v>
       </c>
       <c r="AU39" t="n">
         <v>1.31</v>
@@ -9226,7 +9226,7 @@
         <v>0.31</v>
       </c>
       <c r="AT43" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AU43" t="n">
         <v>0.82</v>
@@ -9629,7 +9629,7 @@
         <v>1</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT45" t="n">
         <v>1.83</v>
@@ -10850,7 +10850,7 @@
         <v>1.25</v>
       </c>
       <c r="AT51" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU51" t="n">
         <v>1.29</v>
@@ -11050,7 +11050,7 @@
         <v>2.33</v>
       </c>
       <c r="AS52" t="n">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="AT52" t="n">
         <v>1.92</v>
@@ -11456,7 +11456,7 @@
         <v>2.33</v>
       </c>
       <c r="AS54" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT54" t="n">
         <v>2.08</v>
@@ -11662,7 +11662,7 @@
         <v>0.31</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.36</v>
+        <v>0.58</v>
       </c>
       <c r="AU55" t="n">
         <v>0.9399999999999999</v>
@@ -11865,7 +11865,7 @@
         <v>1.67</v>
       </c>
       <c r="AT56" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AU56" t="n">
         <v>2.03</v>
@@ -13689,7 +13689,7 @@
         <v>2</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT65" t="n">
         <v>2.08</v>
@@ -14301,7 +14301,7 @@
         <v>1.67</v>
       </c>
       <c r="AT68" t="n">
-        <v>0.36</v>
+        <v>0.58</v>
       </c>
       <c r="AU68" t="n">
         <v>1.94</v>
@@ -14704,10 +14704,10 @@
         <v>0.25</v>
       </c>
       <c r="AS70" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT70" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU70" t="n">
         <v>1.22</v>
@@ -14907,10 +14907,10 @@
         <v>2.5</v>
       </c>
       <c r="AS71" t="n">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="AT71" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AU71" t="n">
         <v>1.4</v>
@@ -16534,7 +16534,7 @@
         <v>1.42</v>
       </c>
       <c r="AT79" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AU79" t="n">
         <v>1.63</v>
@@ -17140,10 +17140,10 @@
         <v>0.8</v>
       </c>
       <c r="AS82" t="n">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="AT82" t="n">
-        <v>0.36</v>
+        <v>0.58</v>
       </c>
       <c r="AU82" t="n">
         <v>1.48</v>
@@ -17546,10 +17546,10 @@
         <v>0.2</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT84" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU84" t="n">
         <v>1.36</v>
@@ -17749,7 +17749,7 @@
         <v>1.8</v>
       </c>
       <c r="AS85" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT85" t="n">
         <v>1.25</v>
@@ -17955,7 +17955,7 @@
         <v>2.25</v>
       </c>
       <c r="AT86" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AU86" t="n">
         <v>1.43</v>
@@ -19579,7 +19579,7 @@
         <v>0.75</v>
       </c>
       <c r="AT94" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AU94" t="n">
         <v>0.78</v>
@@ -21203,7 +21203,7 @@
         <v>2.25</v>
       </c>
       <c r="AT102" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU102" t="n">
         <v>1.41</v>
@@ -21406,7 +21406,7 @@
         <v>1.27</v>
       </c>
       <c r="AT103" t="n">
-        <v>0.36</v>
+        <v>0.58</v>
       </c>
       <c r="AU103" t="n">
         <v>1.62</v>
@@ -21606,7 +21606,7 @@
         <v>1.5</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT104" t="n">
         <v>1.42</v>
@@ -21809,7 +21809,7 @@
         <v>2.33</v>
       </c>
       <c r="AS105" t="n">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="AT105" t="n">
         <v>1.92</v>
@@ -22012,7 +22012,7 @@
         <v>0.5</v>
       </c>
       <c r="AS106" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT106" t="n">
         <v>0.64</v>
@@ -22218,7 +22218,7 @@
         <v>0.58</v>
       </c>
       <c r="AT107" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU107" t="n">
         <v>1.03</v>
@@ -22827,7 +22827,7 @@
         <v>1.17</v>
       </c>
       <c r="AT110" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AU110" t="n">
         <v>1.41</v>
@@ -23639,7 +23639,7 @@
         <v>2.25</v>
       </c>
       <c r="AT114" t="n">
-        <v>0.36</v>
+        <v>0.58</v>
       </c>
       <c r="AU114" t="n">
         <v>1.47</v>
@@ -24042,7 +24042,7 @@
         <v>0.57</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT116" t="n">
         <v>0.64</v>
@@ -24448,7 +24448,7 @@
         <v>1.25</v>
       </c>
       <c r="AS118" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT118" t="n">
         <v>1.17</v>
@@ -24651,7 +24651,7 @@
         <v>1.25</v>
       </c>
       <c r="AS119" t="n">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="AT119" t="n">
         <v>1.33</v>
@@ -25263,7 +25263,7 @@
         <v>1.17</v>
       </c>
       <c r="AT122" t="n">
-        <v>0.36</v>
+        <v>0.58</v>
       </c>
       <c r="AU122" t="n">
         <v>1.4</v>
@@ -25872,7 +25872,7 @@
         <v>1.58</v>
       </c>
       <c r="AT125" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AU125" t="n">
         <v>1.33</v>
@@ -26072,7 +26072,7 @@
         <v>1.75</v>
       </c>
       <c r="AS126" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT126" t="n">
         <v>1.67</v>
@@ -26278,7 +26278,7 @@
         <v>0.58</v>
       </c>
       <c r="AT127" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU127" t="n">
         <v>1.43</v>
@@ -26681,7 +26681,7 @@
         <v>1.78</v>
       </c>
       <c r="AS129" t="n">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="AT129" t="n">
         <v>1.83</v>
@@ -27696,7 +27696,7 @@
         <v>1.22</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT134" t="n">
         <v>1.17</v>
@@ -28308,7 +28308,7 @@
         <v>0.31</v>
       </c>
       <c r="AT137" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU137" t="n">
         <v>0.92</v>
@@ -28511,7 +28511,7 @@
         <v>1.58</v>
       </c>
       <c r="AT138" t="n">
-        <v>0.36</v>
+        <v>0.58</v>
       </c>
       <c r="AU138" t="n">
         <v>1.34</v>
@@ -28711,7 +28711,7 @@
         <v>1.9</v>
       </c>
       <c r="AS139" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT139" t="n">
         <v>1.92</v>
@@ -28914,7 +28914,7 @@
         <v>1.67</v>
       </c>
       <c r="AS140" t="n">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="AT140" t="n">
         <v>1.67</v>
@@ -29120,7 +29120,7 @@
         <v>1.25</v>
       </c>
       <c r="AT141" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AU141" t="n">
         <v>1.32</v>
@@ -30538,7 +30538,7 @@
         <v>2.5</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT148" t="n">
         <v>2.58</v>
@@ -30741,10 +30741,10 @@
         <v>2.27</v>
       </c>
       <c r="AS149" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT149" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AU149" t="n">
         <v>1.35</v>
@@ -31147,7 +31147,7 @@
         <v>2.27</v>
       </c>
       <c r="AS151" t="n">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="AT151" t="n">
         <v>2.08</v>
@@ -31353,7 +31353,7 @@
         <v>1.67</v>
       </c>
       <c r="AT152" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU152" t="n">
         <v>1.63</v>
@@ -31553,7 +31553,7 @@
         <v>1.6</v>
       </c>
       <c r="AS153" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT153" t="n">
         <v>1.67</v>
@@ -31962,7 +31962,7 @@
         <v>1.25</v>
       </c>
       <c r="AT155" t="n">
-        <v>0.36</v>
+        <v>0.58</v>
       </c>
       <c r="AU155" t="n">
         <v>1.27</v>
@@ -34247,6 +34247,615 @@
       </c>
       <c r="BK166" t="n">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B167" t="n">
+        <v>4497338</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Malta Maltese Premier League</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E167" s="2" t="n">
+        <v>45026.54166666666</v>
+      </c>
+      <c r="F167" t="n">
+        <v>24</v>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>Mosta</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>Balzan</t>
+        </is>
+      </c>
+      <c r="I167" t="n">
+        <v>1</v>
+      </c>
+      <c r="J167" t="n">
+        <v>1</v>
+      </c>
+      <c r="K167" t="n">
+        <v>2</v>
+      </c>
+      <c r="L167" t="n">
+        <v>2</v>
+      </c>
+      <c r="M167" t="n">
+        <v>3</v>
+      </c>
+      <c r="N167" t="n">
+        <v>5</v>
+      </c>
+      <c r="O167" t="inlineStr">
+        <is>
+          <t>['24', '69']</t>
+        </is>
+      </c>
+      <c r="P167" t="inlineStr">
+        <is>
+          <t>['42', '74', '78']</t>
+        </is>
+      </c>
+      <c r="Q167" t="n">
+        <v>5</v>
+      </c>
+      <c r="R167" t="n">
+        <v>6</v>
+      </c>
+      <c r="S167" t="n">
+        <v>11</v>
+      </c>
+      <c r="T167" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U167" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V167" t="n">
+        <v>3</v>
+      </c>
+      <c r="W167" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X167" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y167" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Z167" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AA167" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB167" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC167" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AD167" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE167" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AF167" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG167" t="n">
+        <v>17.75</v>
+      </c>
+      <c r="AH167" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI167" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ167" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK167" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL167" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AM167" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN167" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AO167" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP167" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ167" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AR167" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AS167" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AT167" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AU167" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AV167" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AW167" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AX167" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY167" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ167" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA167" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB167" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC167" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD167" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE167" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF167" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG167" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH167" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI167" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ167" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK167" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B168" t="n">
+        <v>4497342</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Malta Maltese Premier League</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E168" s="2" t="n">
+        <v>45026.5625</v>
+      </c>
+      <c r="F168" t="n">
+        <v>24</v>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>Valletta</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>Santa Lucia</t>
+        </is>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="n">
+        <v>1</v>
+      </c>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="n">
+        <v>0</v>
+      </c>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="n">
+        <v>1</v>
+      </c>
+      <c r="O168" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P168" t="inlineStr">
+        <is>
+          <t>['6']</t>
+        </is>
+      </c>
+      <c r="Q168" t="n">
+        <v>5</v>
+      </c>
+      <c r="R168" t="n">
+        <v>4</v>
+      </c>
+      <c r="S168" t="n">
+        <v>9</v>
+      </c>
+      <c r="T168" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="U168" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="V168" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="W168" t="n">
+        <v>0</v>
+      </c>
+      <c r="X168" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y168" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z168" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA168" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB168" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC168" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AD168" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AE168" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AF168" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG168" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH168" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI168" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ168" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AK168" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL168" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AM168" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AN168" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AO168" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AP168" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AQ168" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR168" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AS168" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AT168" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="AU168" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AV168" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AW168" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AX168" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY168" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ168" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA168" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB168" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC168" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD168" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE168" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF168" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG168" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH168" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI168" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ168" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK168" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B169" t="n">
+        <v>4497340</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Malta Maltese Premier League</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E169" s="2" t="n">
+        <v>45026.58333333334</v>
+      </c>
+      <c r="F169" t="n">
+        <v>24</v>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>Hamrun Spartans</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>Zebbug Rangers</t>
+        </is>
+      </c>
+      <c r="I169" t="n">
+        <v>1</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="n">
+        <v>4</v>
+      </c>
+      <c r="M169" t="n">
+        <v>0</v>
+      </c>
+      <c r="N169" t="n">
+        <v>4</v>
+      </c>
+      <c r="O169" t="inlineStr">
+        <is>
+          <t>['26', '62', '64', '84']</t>
+        </is>
+      </c>
+      <c r="P169" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q169" t="n">
+        <v>20</v>
+      </c>
+      <c r="R169" t="n">
+        <v>3</v>
+      </c>
+      <c r="S169" t="n">
+        <v>23</v>
+      </c>
+      <c r="T169" t="n">
+        <v>0</v>
+      </c>
+      <c r="U169" t="n">
+        <v>0</v>
+      </c>
+      <c r="V169" t="n">
+        <v>0</v>
+      </c>
+      <c r="W169" t="n">
+        <v>0</v>
+      </c>
+      <c r="X169" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y169" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z169" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA169" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB169" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC169" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD169" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE169" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF169" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG169" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH169" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI169" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ169" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AK169" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AL169" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM169" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN169" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO169" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP169" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ169" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AR169" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AS169" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AT169" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AU169" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AV169" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AW169" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AX169" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY169" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ169" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA169" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB169" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC169" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD169" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE169" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF169" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG169" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH169" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI169" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ169" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK169" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
